--- a/Output_data/kappa.xlsx
+++ b/Output_data/kappa.xlsx
@@ -2845,304 +2845,304 @@
         <v>0.01</v>
       </c>
       <c r="CW2">
-        <v>195.3</v>
+        <v>1</v>
       </c>
       <c r="CX2">
-        <v>194.42</v>
+        <v>0.99</v>
       </c>
       <c r="CY2">
-        <v>193.85</v>
+        <v>0.98</v>
       </c>
       <c r="CZ2">
-        <v>193.56</v>
+        <v>0.97</v>
       </c>
       <c r="DA2">
-        <v>193.4</v>
+        <v>0.96</v>
       </c>
       <c r="DB2">
-        <v>192.38</v>
+        <v>0.95</v>
       </c>
       <c r="DC2">
-        <v>191.81</v>
+        <v>0.94</v>
       </c>
       <c r="DD2">
-        <v>189.12</v>
+        <v>0.93</v>
       </c>
       <c r="DE2">
-        <v>189.11</v>
+        <v>0.92</v>
       </c>
       <c r="DF2">
-        <v>187.65</v>
+        <v>0.91</v>
       </c>
       <c r="DG2">
-        <v>186.49</v>
+        <v>0.9</v>
       </c>
       <c r="DH2">
-        <v>186.34</v>
+        <v>0.89</v>
       </c>
       <c r="DI2">
-        <v>185.02</v>
+        <v>0.88</v>
       </c>
       <c r="DJ2">
-        <v>184.67</v>
+        <v>0.87</v>
       </c>
       <c r="DK2">
-        <v>183.95</v>
+        <v>0.86</v>
       </c>
       <c r="DL2">
-        <v>183.54</v>
+        <v>0.85</v>
       </c>
       <c r="DM2">
-        <v>183.36</v>
+        <v>0.84</v>
       </c>
       <c r="DN2">
-        <v>182.25</v>
+        <v>0.83</v>
       </c>
       <c r="DO2">
-        <v>182.02</v>
+        <v>0.82</v>
       </c>
       <c r="DP2">
-        <v>181.02</v>
+        <v>0.81</v>
       </c>
       <c r="DQ2">
-        <v>177.23</v>
+        <v>0.8</v>
       </c>
       <c r="DR2">
-        <v>176.66</v>
+        <v>0.79</v>
       </c>
       <c r="DS2">
-        <v>176.35</v>
+        <v>0.78</v>
       </c>
       <c r="DT2">
-        <v>176.21</v>
+        <v>0.77</v>
       </c>
       <c r="DU2">
-        <v>172.75</v>
+        <v>0.76</v>
       </c>
       <c r="DV2">
-        <v>172.54</v>
+        <v>0.75</v>
       </c>
       <c r="DW2">
-        <v>169.89</v>
+        <v>0.74</v>
       </c>
       <c r="DX2">
-        <v>169.43</v>
+        <v>0.73</v>
       </c>
       <c r="DY2">
-        <v>168.73</v>
+        <v>0.72</v>
       </c>
       <c r="DZ2">
-        <v>168.65</v>
+        <v>0.71</v>
       </c>
       <c r="EA2">
-        <v>167.84</v>
+        <v>0.7</v>
       </c>
       <c r="EB2">
-        <v>166.46</v>
+        <v>0.69</v>
       </c>
       <c r="EC2">
-        <v>164.87</v>
+        <v>0.68</v>
       </c>
       <c r="ED2">
-        <v>163.94</v>
+        <v>0.67</v>
       </c>
       <c r="EE2">
-        <v>162.87</v>
+        <v>0.66</v>
       </c>
       <c r="EF2">
-        <v>162.47</v>
+        <v>0.65</v>
       </c>
       <c r="EG2">
-        <v>161.97</v>
+        <v>0.64</v>
       </c>
       <c r="EH2">
-        <v>161.57</v>
+        <v>0.63</v>
       </c>
       <c r="EI2">
-        <v>160.21</v>
+        <v>0.62</v>
       </c>
       <c r="EJ2">
-        <v>159.01</v>
+        <v>0.61</v>
       </c>
       <c r="EK2">
-        <v>158.51</v>
+        <v>0.6</v>
       </c>
       <c r="EL2">
-        <v>156.03</v>
+        <v>0.59</v>
       </c>
       <c r="EM2">
-        <v>155.19</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="EN2">
-        <v>155.15</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="EO2">
-        <v>155.07</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="EP2">
-        <v>152.30000000000001</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="EQ2">
-        <v>151.13999999999999</v>
+        <v>0.54</v>
       </c>
       <c r="ER2">
-        <v>150.65</v>
+        <v>0.53</v>
       </c>
       <c r="ES2">
-        <v>149.71</v>
+        <v>0.52</v>
       </c>
       <c r="ET2">
-        <v>149.19</v>
+        <v>0.51</v>
       </c>
       <c r="EU2">
-        <v>148.02000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="EV2">
-        <v>147.16</v>
+        <v>0.49</v>
       </c>
       <c r="EW2">
-        <v>146.69</v>
+        <v>0.48</v>
       </c>
       <c r="EX2">
-        <v>142.94999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="EY2">
-        <v>142.1</v>
+        <v>0.46</v>
       </c>
       <c r="EZ2">
-        <v>141.72</v>
+        <v>0.45</v>
       </c>
       <c r="FA2">
-        <v>141.61000000000001</v>
+        <v>0.44</v>
       </c>
       <c r="FB2">
-        <v>141.24</v>
+        <v>0.43</v>
       </c>
       <c r="FC2">
-        <v>137.72</v>
+        <v>0.42</v>
       </c>
       <c r="FD2">
-        <v>137.4</v>
+        <v>0.41</v>
       </c>
       <c r="FE2">
-        <v>135.72</v>
+        <v>0.4</v>
       </c>
       <c r="FF2">
-        <v>134.84</v>
+        <v>0.39</v>
       </c>
       <c r="FG2">
-        <v>134.31</v>
+        <v>0.38</v>
       </c>
       <c r="FH2">
-        <v>133.47</v>
+        <v>0.37</v>
       </c>
       <c r="FI2">
-        <v>131.81</v>
+        <v>0.36</v>
       </c>
       <c r="FJ2">
-        <v>129.77000000000001</v>
+        <v>0.35</v>
       </c>
       <c r="FK2">
-        <v>128.16</v>
+        <v>0.34</v>
       </c>
       <c r="FL2">
-        <v>127.26</v>
+        <v>0.33</v>
       </c>
       <c r="FM2">
-        <v>126.56</v>
+        <v>0.32</v>
       </c>
       <c r="FN2">
-        <v>126.34</v>
+        <v>0.31</v>
       </c>
       <c r="FO2">
-        <v>123.32</v>
+        <v>0.3</v>
       </c>
       <c r="FP2">
-        <v>122.27</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="FQ2">
-        <v>121.48</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="FR2">
-        <v>119.56</v>
+        <v>0.27</v>
       </c>
       <c r="FS2">
-        <v>119.46</v>
+        <v>0.26</v>
       </c>
       <c r="FT2">
-        <v>119.03</v>
+        <v>0.25</v>
       </c>
       <c r="FU2">
-        <v>117.85</v>
+        <v>0.24</v>
       </c>
       <c r="FV2">
-        <v>116.23</v>
+        <v>0.23</v>
       </c>
       <c r="FW2">
-        <v>115.02</v>
+        <v>0.22</v>
       </c>
       <c r="FX2">
-        <v>112.74</v>
+        <v>0.21</v>
       </c>
       <c r="FY2">
-        <v>110.32</v>
+        <v>0.2</v>
       </c>
       <c r="FZ2">
-        <v>109.99</v>
+        <v>0.19</v>
       </c>
       <c r="GA2">
-        <v>107.9</v>
+        <v>0.18</v>
       </c>
       <c r="GB2">
-        <v>106.1</v>
+        <v>0.17</v>
       </c>
       <c r="GC2">
-        <v>105.17</v>
+        <v>0.16</v>
       </c>
       <c r="GD2">
-        <v>104.76</v>
+        <v>0.15</v>
       </c>
       <c r="GE2">
-        <v>103.5</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="GF2">
-        <v>103.08</v>
+        <v>0.13</v>
       </c>
       <c r="GG2">
-        <v>102.37</v>
+        <v>0.12</v>
       </c>
       <c r="GH2">
-        <v>100.05</v>
+        <v>0.11</v>
       </c>
       <c r="GI2">
-        <v>97.75</v>
+        <v>0.1</v>
       </c>
       <c r="GJ2">
-        <v>97.38</v>
+        <v>0.09</v>
       </c>
       <c r="GK2">
-        <v>93.53</v>
+        <v>0.08</v>
       </c>
       <c r="GL2">
-        <v>93.05</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="GM2">
-        <v>90.83</v>
+        <v>0.06</v>
       </c>
       <c r="GN2">
-        <v>89.28</v>
+        <v>0.05</v>
       </c>
       <c r="GO2">
-        <v>88.8</v>
+        <v>0.04</v>
       </c>
       <c r="GP2">
-        <v>87.53</v>
+        <v>0.03</v>
       </c>
       <c r="GQ2">
-        <v>86.18</v>
+        <v>0.02</v>
       </c>
       <c r="GR2">
-        <v>86.09</v>
+        <v>0.01</v>
       </c>
       <c r="GS2">
         <v>84.11</v>

--- a/Output_data/kappa.xlsx
+++ b/Output_data/kappa.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:AAZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV2"/>
+      <selection sqref="A1:EW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,1495 +2545,1495 @@
     </row>
     <row r="2" spans="1:728" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>428.29</v>
       </c>
       <c r="B2">
-        <v>0.99</v>
+        <v>385.45</v>
       </c>
       <c r="C2">
-        <v>0.98</v>
+        <v>330.03</v>
       </c>
       <c r="D2">
-        <v>0.97</v>
+        <v>281.31</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>264.41000000000003</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>253.96</v>
       </c>
       <c r="G2">
-        <v>0.94</v>
+        <v>244.09</v>
       </c>
       <c r="H2">
-        <v>0.93</v>
+        <v>237.19</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>236.84</v>
       </c>
       <c r="J2">
-        <v>0.91</v>
+        <v>230.79</v>
       </c>
       <c r="K2">
-        <v>0.9</v>
+        <v>229.9</v>
       </c>
       <c r="L2">
-        <v>0.89</v>
+        <v>229.17</v>
       </c>
       <c r="M2">
-        <v>0.88</v>
+        <v>229.03</v>
       </c>
       <c r="N2">
-        <v>0.87</v>
+        <v>228.78</v>
       </c>
       <c r="O2">
-        <v>0.86</v>
+        <v>227.54</v>
       </c>
       <c r="P2">
-        <v>0.85</v>
+        <v>227.35</v>
       </c>
       <c r="Q2">
-        <v>0.84</v>
+        <v>224.49</v>
       </c>
       <c r="R2">
-        <v>0.83</v>
+        <v>222.4</v>
       </c>
       <c r="S2">
-        <v>0.82</v>
+        <v>221.02</v>
       </c>
       <c r="T2">
-        <v>0.81</v>
+        <v>220.56</v>
       </c>
       <c r="U2">
-        <v>0.8</v>
+        <v>219.71</v>
       </c>
       <c r="V2">
-        <v>0.79</v>
+        <v>219.27</v>
       </c>
       <c r="W2">
-        <v>0.78</v>
+        <v>216.03</v>
       </c>
       <c r="X2">
-        <v>0.77</v>
+        <v>215.84</v>
       </c>
       <c r="Y2">
-        <v>0.76</v>
+        <v>215.19</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>214.19</v>
       </c>
       <c r="AA2">
-        <v>0.74</v>
+        <v>214.15</v>
       </c>
       <c r="AB2">
-        <v>0.73</v>
+        <v>211.92</v>
       </c>
       <c r="AC2">
-        <v>0.72</v>
+        <v>211.68</v>
       </c>
       <c r="AD2">
-        <v>0.71</v>
+        <v>210.85</v>
       </c>
       <c r="AE2">
-        <v>0.7</v>
+        <v>210.62</v>
       </c>
       <c r="AF2">
-        <v>0.69</v>
+        <v>209.21</v>
       </c>
       <c r="AG2">
-        <v>0.68</v>
+        <v>208.19</v>
       </c>
       <c r="AH2">
-        <v>0.67</v>
+        <v>207.68</v>
       </c>
       <c r="AI2">
-        <v>0.66</v>
+        <v>207.11</v>
       </c>
       <c r="AJ2">
-        <v>0.65</v>
+        <v>205.91</v>
       </c>
       <c r="AK2">
-        <v>0.64</v>
+        <v>203.53</v>
       </c>
       <c r="AL2">
-        <v>0.63</v>
+        <v>203.2</v>
       </c>
       <c r="AM2">
-        <v>0.62</v>
+        <v>201.54</v>
       </c>
       <c r="AN2">
-        <v>0.61</v>
+        <v>200.96</v>
       </c>
       <c r="AO2">
-        <v>0.6</v>
+        <v>200.74</v>
       </c>
       <c r="AP2">
-        <v>0.59</v>
+        <v>198.32</v>
       </c>
       <c r="AQ2">
-        <v>0.57999999999999996</v>
+        <v>197.5</v>
       </c>
       <c r="AR2">
-        <v>0.56999999999999995</v>
+        <v>195.51</v>
       </c>
       <c r="AS2">
-        <v>0.56000000000000005</v>
+        <v>192.91</v>
       </c>
       <c r="AT2">
-        <v>0.55000000000000004</v>
+        <v>192.72</v>
       </c>
       <c r="AU2">
-        <v>0.54</v>
+        <v>191.01</v>
       </c>
       <c r="AV2">
-        <v>0.53</v>
+        <v>190.36</v>
       </c>
       <c r="AW2">
-        <v>0.52</v>
+        <v>189.69</v>
       </c>
       <c r="AX2">
-        <v>0.51</v>
+        <v>188.18</v>
       </c>
       <c r="AY2">
-        <v>0.5</v>
+        <v>185.91</v>
       </c>
       <c r="AZ2">
-        <v>0.49</v>
+        <v>185.51</v>
       </c>
       <c r="BA2">
-        <v>0.48</v>
+        <v>182.35</v>
       </c>
       <c r="BB2">
-        <v>0.47</v>
+        <v>181.79</v>
       </c>
       <c r="BC2">
-        <v>0.46</v>
+        <v>180.15</v>
       </c>
       <c r="BD2">
-        <v>0.45</v>
+        <v>179.91</v>
       </c>
       <c r="BE2">
-        <v>0.44</v>
+        <v>177.99</v>
       </c>
       <c r="BF2">
-        <v>0.43</v>
+        <v>176.54</v>
       </c>
       <c r="BG2">
-        <v>0.42</v>
+        <v>176.38</v>
       </c>
       <c r="BH2">
-        <v>0.41</v>
+        <v>175.43</v>
       </c>
       <c r="BI2">
-        <v>0.4</v>
+        <v>174.08</v>
       </c>
       <c r="BJ2">
-        <v>0.39</v>
+        <v>172.66</v>
       </c>
       <c r="BK2">
-        <v>0.38</v>
+        <v>171.85</v>
       </c>
       <c r="BL2">
-        <v>0.37</v>
+        <v>169.66</v>
       </c>
       <c r="BM2">
-        <v>0.36</v>
+        <v>167.18</v>
       </c>
       <c r="BN2">
-        <v>0.35</v>
+        <v>166.45</v>
       </c>
       <c r="BO2">
-        <v>0.34</v>
+        <v>166.27</v>
       </c>
       <c r="BP2">
-        <v>0.33</v>
+        <v>164.5</v>
       </c>
       <c r="BQ2">
-        <v>0.32</v>
+        <v>164.07</v>
       </c>
       <c r="BR2">
-        <v>0.31</v>
+        <v>161.29</v>
       </c>
       <c r="BS2">
-        <v>0.3</v>
+        <v>159.91999999999999</v>
       </c>
       <c r="BT2">
-        <v>0.28999999999999998</v>
+        <v>159.52000000000001</v>
       </c>
       <c r="BU2">
-        <v>0.28000000000000003</v>
+        <v>159.1</v>
       </c>
       <c r="BV2">
-        <v>0.27</v>
+        <v>158.36000000000001</v>
       </c>
       <c r="BW2">
-        <v>0.26</v>
+        <v>155.41999999999999</v>
       </c>
       <c r="BX2">
-        <v>0.25</v>
+        <v>155.22</v>
       </c>
       <c r="BY2">
-        <v>0.24</v>
+        <v>152.36000000000001</v>
       </c>
       <c r="BZ2">
-        <v>0.23</v>
+        <v>151.9</v>
       </c>
       <c r="CA2">
-        <v>0.22</v>
+        <v>151.69</v>
       </c>
       <c r="CB2">
-        <v>0.21</v>
+        <v>148.93</v>
       </c>
       <c r="CC2">
-        <v>0.2</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="CD2">
-        <v>0.19</v>
+        <v>145.12</v>
       </c>
       <c r="CE2">
-        <v>0.18</v>
+        <v>144.75</v>
       </c>
       <c r="CF2">
-        <v>0.17</v>
+        <v>144.71</v>
       </c>
       <c r="CG2">
-        <v>0.16</v>
+        <v>141.66</v>
       </c>
       <c r="CH2">
-        <v>0.15</v>
+        <v>141.21</v>
       </c>
       <c r="CI2">
-        <v>0.14000000000000001</v>
+        <v>140.16999999999999</v>
       </c>
       <c r="CJ2">
-        <v>0.13</v>
+        <v>137.35</v>
       </c>
       <c r="CK2">
-        <v>0.12</v>
+        <v>137.13999999999999</v>
       </c>
       <c r="CL2">
-        <v>0.11</v>
+        <v>133.91</v>
       </c>
       <c r="CM2">
-        <v>0.1</v>
+        <v>133.66</v>
       </c>
       <c r="CN2">
-        <v>0.09</v>
+        <v>132.91999999999999</v>
       </c>
       <c r="CO2">
-        <v>0.08</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="CP2">
-        <v>7.0000000000000007E-2</v>
+        <v>129.11000000000001</v>
       </c>
       <c r="CQ2">
-        <v>0.06</v>
+        <v>126.83</v>
       </c>
       <c r="CR2">
-        <v>0.05</v>
+        <v>125.55</v>
       </c>
       <c r="CS2">
-        <v>0.04</v>
+        <v>125.01</v>
       </c>
       <c r="CT2">
-        <v>0.03</v>
+        <v>121.67</v>
       </c>
       <c r="CU2">
-        <v>0.02</v>
+        <v>120.12</v>
       </c>
       <c r="CV2">
-        <v>0.01</v>
+        <v>118.55</v>
       </c>
       <c r="CW2">
-        <v>1</v>
+        <v>116.6</v>
       </c>
       <c r="CX2">
-        <v>0.99</v>
+        <v>116.16</v>
       </c>
       <c r="CY2">
-        <v>0.98</v>
+        <v>113.28</v>
       </c>
       <c r="CZ2">
-        <v>0.97</v>
+        <v>111.17</v>
       </c>
       <c r="DA2">
-        <v>0.96</v>
+        <v>110.22</v>
       </c>
       <c r="DB2">
-        <v>0.95</v>
+        <v>107.19</v>
       </c>
       <c r="DC2">
-        <v>0.94</v>
+        <v>107.12</v>
       </c>
       <c r="DD2">
-        <v>0.93</v>
+        <v>104.1</v>
       </c>
       <c r="DE2">
-        <v>0.92</v>
+        <v>101.67</v>
       </c>
       <c r="DF2">
-        <v>0.91</v>
+        <v>101.03</v>
       </c>
       <c r="DG2">
-        <v>0.9</v>
+        <v>97.74</v>
       </c>
       <c r="DH2">
-        <v>0.89</v>
+        <v>97.13</v>
       </c>
       <c r="DI2">
-        <v>0.88</v>
+        <v>94.77</v>
       </c>
       <c r="DJ2">
-        <v>0.87</v>
+        <v>92.1</v>
       </c>
       <c r="DK2">
-        <v>0.86</v>
+        <v>91.42</v>
       </c>
       <c r="DL2">
-        <v>0.85</v>
+        <v>87.88</v>
       </c>
       <c r="DM2">
-        <v>0.84</v>
+        <v>87.23</v>
       </c>
       <c r="DN2">
-        <v>0.83</v>
+        <v>84.81</v>
       </c>
       <c r="DO2">
-        <v>0.82</v>
+        <v>81.86</v>
       </c>
       <c r="DP2">
-        <v>0.81</v>
+        <v>81.22</v>
       </c>
       <c r="DQ2">
-        <v>0.8</v>
+        <v>77.69</v>
       </c>
       <c r="DR2">
-        <v>0.79</v>
+        <v>76.72</v>
       </c>
       <c r="DS2">
-        <v>0.78</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="DT2">
-        <v>0.77</v>
+        <v>71.38</v>
       </c>
       <c r="DU2">
-        <v>0.76</v>
+        <v>70.62</v>
       </c>
       <c r="DV2">
-        <v>0.75</v>
+        <v>66.8</v>
       </c>
       <c r="DW2">
-        <v>0.74</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="DX2">
-        <v>0.73</v>
+        <v>63.13</v>
       </c>
       <c r="DY2">
-        <v>0.72</v>
+        <v>60.56</v>
       </c>
       <c r="DZ2">
-        <v>0.71</v>
+        <v>59.48</v>
       </c>
       <c r="EA2">
-        <v>0.7</v>
+        <v>55.86</v>
       </c>
       <c r="EB2">
-        <v>0.69</v>
+        <v>54.68</v>
       </c>
       <c r="EC2">
-        <v>0.68</v>
+        <v>51.95</v>
       </c>
       <c r="ED2">
-        <v>0.67</v>
+        <v>49.13</v>
       </c>
       <c r="EE2">
-        <v>0.66</v>
+        <v>48.03</v>
       </c>
       <c r="EF2">
-        <v>0.65</v>
+        <v>44.31</v>
       </c>
       <c r="EG2">
-        <v>0.64</v>
+        <v>43.3</v>
       </c>
       <c r="EH2">
-        <v>0.63</v>
+        <v>40.03</v>
       </c>
       <c r="EI2">
-        <v>0.62</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="EJ2">
-        <v>0.61</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="EK2">
-        <v>0.6</v>
+        <v>32.74</v>
       </c>
       <c r="EL2">
-        <v>0.59</v>
+        <v>30.93</v>
       </c>
       <c r="EM2">
-        <v>0.57999999999999996</v>
+        <v>28.33</v>
       </c>
       <c r="EN2">
-        <v>0.56999999999999995</v>
+        <v>25.23</v>
       </c>
       <c r="EO2">
-        <v>0.56000000000000005</v>
+        <v>23.91</v>
       </c>
       <c r="EP2">
-        <v>0.55000000000000004</v>
+        <v>20.05</v>
       </c>
       <c r="EQ2">
-        <v>0.54</v>
+        <v>19.14</v>
       </c>
       <c r="ER2">
-        <v>0.53</v>
+        <v>15.23</v>
       </c>
       <c r="ES2">
-        <v>0.52</v>
+        <v>13.79</v>
       </c>
       <c r="ET2">
-        <v>0.51</v>
+        <v>10.64</v>
       </c>
       <c r="EU2">
-        <v>0.5</v>
+        <v>8.4499999999999993</v>
       </c>
       <c r="EV2">
-        <v>0.49</v>
+        <v>5.39</v>
       </c>
       <c r="EW2">
-        <v>0.48</v>
+        <v>3.4</v>
       </c>
       <c r="EX2">
-        <v>0.47</v>
+        <v>228.02</v>
       </c>
       <c r="EY2">
-        <v>0.46</v>
+        <v>227.57</v>
       </c>
       <c r="EZ2">
-        <v>0.45</v>
+        <v>227.55</v>
       </c>
       <c r="FA2">
-        <v>0.44</v>
+        <v>227.49</v>
       </c>
       <c r="FB2">
-        <v>0.43</v>
+        <v>227.4</v>
       </c>
       <c r="FC2">
-        <v>0.42</v>
+        <v>227.35</v>
       </c>
       <c r="FD2">
-        <v>0.41</v>
+        <v>227.06</v>
       </c>
       <c r="FE2">
-        <v>0.4</v>
+        <v>227</v>
       </c>
       <c r="FF2">
-        <v>0.39</v>
+        <v>226.97</v>
       </c>
       <c r="FG2">
-        <v>0.38</v>
+        <v>226.74</v>
       </c>
       <c r="FH2">
-        <v>0.37</v>
+        <v>226.64</v>
       </c>
       <c r="FI2">
-        <v>0.36</v>
+        <v>226.44</v>
       </c>
       <c r="FJ2">
-        <v>0.35</v>
+        <v>226.41</v>
       </c>
       <c r="FK2">
-        <v>0.34</v>
+        <v>226.31</v>
       </c>
       <c r="FL2">
-        <v>0.33</v>
+        <v>226.28</v>
       </c>
       <c r="FM2">
-        <v>0.32</v>
+        <v>226.24</v>
       </c>
       <c r="FN2">
-        <v>0.31</v>
+        <v>225.89</v>
       </c>
       <c r="FO2">
-        <v>0.3</v>
+        <v>225.84</v>
       </c>
       <c r="FP2">
-        <v>0.28999999999999998</v>
+        <v>225.83</v>
       </c>
       <c r="FQ2">
-        <v>0.28000000000000003</v>
+        <v>225.66</v>
       </c>
       <c r="FR2">
-        <v>0.27</v>
+        <v>225.65</v>
       </c>
       <c r="FS2">
-        <v>0.26</v>
+        <v>225.51</v>
       </c>
       <c r="FT2">
-        <v>0.25</v>
+        <v>225.49</v>
       </c>
       <c r="FU2">
-        <v>0.24</v>
+        <v>225.43</v>
       </c>
       <c r="FV2">
-        <v>0.23</v>
+        <v>225.27</v>
       </c>
       <c r="FW2">
-        <v>0.22</v>
+        <v>224.94</v>
       </c>
       <c r="FX2">
-        <v>0.21</v>
+        <v>224.91</v>
       </c>
       <c r="FY2">
-        <v>0.2</v>
+        <v>224.66</v>
       </c>
       <c r="FZ2">
-        <v>0.19</v>
+        <v>224.65</v>
       </c>
       <c r="GA2">
-        <v>0.18</v>
+        <v>224.61</v>
       </c>
       <c r="GB2">
-        <v>0.17</v>
+        <v>224.56</v>
       </c>
       <c r="GC2">
-        <v>0.16</v>
+        <v>224.22</v>
       </c>
       <c r="GD2">
-        <v>0.15</v>
+        <v>224.03</v>
       </c>
       <c r="GE2">
-        <v>0.14000000000000001</v>
+        <v>224.01</v>
       </c>
       <c r="GF2">
-        <v>0.13</v>
+        <v>223.3</v>
       </c>
       <c r="GG2">
-        <v>0.12</v>
+        <v>223.23</v>
       </c>
       <c r="GH2">
-        <v>0.11</v>
+        <v>223.14</v>
       </c>
       <c r="GI2">
-        <v>0.1</v>
+        <v>223.04</v>
       </c>
       <c r="GJ2">
-        <v>0.09</v>
+        <v>223.01</v>
       </c>
       <c r="GK2">
-        <v>0.08</v>
+        <v>222.88</v>
       </c>
       <c r="GL2">
-        <v>7.0000000000000007E-2</v>
+        <v>222.77</v>
       </c>
       <c r="GM2">
-        <v>0.06</v>
+        <v>222.45</v>
       </c>
       <c r="GN2">
-        <v>0.05</v>
+        <v>222.37</v>
       </c>
       <c r="GO2">
-        <v>0.04</v>
+        <v>222.14</v>
       </c>
       <c r="GP2">
-        <v>0.03</v>
+        <v>222.02</v>
       </c>
       <c r="GQ2">
-        <v>0.02</v>
+        <v>221.99</v>
       </c>
       <c r="GR2">
-        <v>0.01</v>
+        <v>221.88</v>
       </c>
       <c r="GS2">
-        <v>84.11</v>
+        <v>221.79</v>
       </c>
       <c r="GT2">
-        <v>82.89</v>
+        <v>221.32</v>
       </c>
       <c r="GU2">
-        <v>81.8</v>
+        <v>221.06</v>
       </c>
       <c r="GV2">
-        <v>80.25</v>
+        <v>220.9</v>
       </c>
       <c r="GW2">
-        <v>76.290000000000006</v>
+        <v>220.8</v>
       </c>
       <c r="GX2">
-        <v>74.81</v>
+        <v>220.69</v>
       </c>
       <c r="GY2">
-        <v>74.239999999999995</v>
+        <v>220.58</v>
       </c>
       <c r="GZ2">
-        <v>73.2</v>
+        <v>220.55</v>
       </c>
       <c r="HA2">
-        <v>70.930000000000007</v>
+        <v>220.19</v>
       </c>
       <c r="HB2">
-        <v>70.12</v>
+        <v>220.17</v>
       </c>
       <c r="HC2">
-        <v>68.900000000000006</v>
+        <v>220.13</v>
       </c>
       <c r="HD2">
-        <v>68.33</v>
+        <v>220.1</v>
       </c>
       <c r="HE2">
-        <v>65.34</v>
+        <v>220.08</v>
       </c>
       <c r="HF2">
-        <v>64.84</v>
+        <v>219.58</v>
       </c>
       <c r="HG2">
-        <v>63.19</v>
+        <v>219.36</v>
       </c>
       <c r="HH2">
-        <v>61.33</v>
+        <v>219.29</v>
       </c>
       <c r="HI2">
-        <v>58.29</v>
+        <v>218.86</v>
       </c>
       <c r="HJ2">
-        <v>57.69</v>
+        <v>218.74</v>
       </c>
       <c r="HK2">
-        <v>55.65</v>
+        <v>218.68</v>
       </c>
       <c r="HL2">
-        <v>54.27</v>
+        <v>218.64</v>
       </c>
       <c r="HM2">
-        <v>51.78</v>
+        <v>218.6</v>
       </c>
       <c r="HN2">
-        <v>51.41</v>
+        <v>218.28</v>
       </c>
       <c r="HO2">
-        <v>50.02</v>
+        <v>218.14</v>
       </c>
       <c r="HP2">
-        <v>48.95</v>
+        <v>217.58</v>
       </c>
       <c r="HQ2">
-        <v>46.6</v>
+        <v>217.46</v>
       </c>
       <c r="HR2">
-        <v>45.54</v>
+        <v>217.15</v>
       </c>
       <c r="HS2">
-        <v>43.59</v>
+        <v>216.92</v>
       </c>
       <c r="HT2">
-        <v>40.97</v>
+        <v>216.72</v>
       </c>
       <c r="HU2">
-        <v>39.090000000000003</v>
+        <v>215.9</v>
       </c>
       <c r="HV2">
-        <v>38.619999999999997</v>
+        <v>215.71</v>
       </c>
       <c r="HW2">
-        <v>35.49</v>
+        <v>215.47</v>
       </c>
       <c r="HX2">
-        <v>34.130000000000003</v>
+        <v>215.45</v>
       </c>
       <c r="HY2">
-        <v>32.090000000000003</v>
+        <v>215.44</v>
       </c>
       <c r="HZ2">
-        <v>31.67</v>
+        <v>215.36</v>
       </c>
       <c r="IA2">
-        <v>29.93</v>
+        <v>215.34</v>
       </c>
       <c r="IB2">
-        <v>28.35</v>
+        <v>215.24</v>
       </c>
       <c r="IC2">
-        <v>26.77</v>
+        <v>215.08</v>
       </c>
       <c r="ID2">
-        <v>25.47</v>
+        <v>215.02</v>
       </c>
       <c r="IE2">
-        <v>22.65</v>
+        <v>214.8</v>
       </c>
       <c r="IF2">
-        <v>20.77</v>
+        <v>214.59</v>
       </c>
       <c r="IG2">
-        <v>19.72</v>
+        <v>214.55</v>
       </c>
       <c r="IH2">
-        <v>18.02</v>
+        <v>214.37</v>
       </c>
       <c r="II2">
-        <v>14.64</v>
+        <v>214.35</v>
       </c>
       <c r="IJ2">
-        <v>12.89</v>
+        <v>214.18</v>
       </c>
       <c r="IK2">
-        <v>10.86</v>
+        <v>214</v>
       </c>
       <c r="IL2">
-        <v>10.79</v>
+        <v>213.89</v>
       </c>
       <c r="IM2">
-        <v>8.8699999999999992</v>
+        <v>213.8</v>
       </c>
       <c r="IN2">
-        <v>6.87</v>
+        <v>213.67</v>
       </c>
       <c r="IO2">
-        <v>5.2</v>
+        <v>213.42</v>
       </c>
       <c r="IP2">
-        <v>4.25</v>
+        <v>213.35</v>
       </c>
       <c r="IQ2">
-        <v>0.27</v>
+        <v>213.13</v>
       </c>
       <c r="IR2">
-        <v>61.28</v>
+        <v>213.07</v>
       </c>
       <c r="IS2">
-        <v>61.13</v>
+        <v>212.77</v>
       </c>
       <c r="IT2">
-        <v>61.08</v>
+        <v>212.66</v>
       </c>
       <c r="IU2">
-        <v>60.9</v>
+        <v>212.64</v>
       </c>
       <c r="IV2">
-        <v>60.8</v>
+        <v>212.49</v>
       </c>
       <c r="IW2">
-        <v>60.71</v>
+        <v>212.26</v>
       </c>
       <c r="IX2">
-        <v>60.56</v>
+        <v>212.15</v>
       </c>
       <c r="IY2">
-        <v>60.46</v>
+        <v>212.07</v>
       </c>
       <c r="IZ2">
-        <v>60.37</v>
+        <v>211.99</v>
       </c>
       <c r="JA2">
-        <v>60.29</v>
+        <v>211.92</v>
       </c>
       <c r="JB2">
-        <v>60.19</v>
+        <v>211.77</v>
       </c>
       <c r="JC2">
-        <v>60.02</v>
+        <v>211.14</v>
       </c>
       <c r="JD2">
-        <v>60.01</v>
+        <v>210.93</v>
       </c>
       <c r="JE2">
-        <v>59.85</v>
+        <v>210.65</v>
       </c>
       <c r="JF2">
-        <v>59.76</v>
+        <v>210.64</v>
       </c>
       <c r="JG2">
-        <v>59.69</v>
+        <v>210.19</v>
       </c>
       <c r="JH2">
-        <v>59.56</v>
+        <v>210.07</v>
       </c>
       <c r="JI2">
-        <v>59.54</v>
+        <v>209.94</v>
       </c>
       <c r="JJ2">
-        <v>59.41</v>
+        <v>209.8</v>
       </c>
       <c r="JK2">
-        <v>59.29</v>
+        <v>209.79</v>
       </c>
       <c r="JL2">
-        <v>59.27</v>
+        <v>209.7</v>
       </c>
       <c r="JM2">
-        <v>59.12</v>
+        <v>209.64</v>
       </c>
       <c r="JN2">
-        <v>59.08</v>
+        <v>209.57</v>
       </c>
       <c r="JO2">
-        <v>59.03</v>
+        <v>209.49</v>
       </c>
       <c r="JP2">
-        <v>58.98</v>
+        <v>209.41</v>
       </c>
       <c r="JQ2">
-        <v>58.91</v>
+        <v>208.58</v>
       </c>
       <c r="JR2">
-        <v>58.87</v>
+        <v>208.44</v>
       </c>
       <c r="JS2">
-        <v>58.82</v>
+        <v>208.4</v>
       </c>
       <c r="JT2">
-        <v>58.76</v>
+        <v>208.21</v>
       </c>
       <c r="JU2">
-        <v>58.7</v>
+        <v>208.03</v>
       </c>
       <c r="JV2">
-        <v>58.66</v>
+        <v>207.81</v>
       </c>
       <c r="JW2">
-        <v>58.57</v>
+        <v>207.26</v>
       </c>
       <c r="JX2">
-        <v>58.49</v>
+        <v>207.2</v>
       </c>
       <c r="JY2">
-        <v>58.48</v>
+        <v>207.03</v>
       </c>
       <c r="JZ2">
-        <v>58.39</v>
+        <v>206.81</v>
       </c>
       <c r="KA2">
-        <v>58.3</v>
+        <v>206.8</v>
       </c>
       <c r="KB2">
-        <v>58.17</v>
+        <v>206.61</v>
       </c>
       <c r="KC2">
-        <v>58.13</v>
+        <v>206.43</v>
       </c>
       <c r="KD2">
-        <v>58.08</v>
+        <v>206.38</v>
       </c>
       <c r="KE2">
-        <v>57.97</v>
+        <v>206.29</v>
       </c>
       <c r="KF2">
-        <v>57.96</v>
+        <v>206.22</v>
       </c>
       <c r="KG2">
-        <v>57.9</v>
+        <v>206.09</v>
       </c>
       <c r="KH2">
-        <v>57.87</v>
+        <v>205.91</v>
       </c>
       <c r="KI2">
-        <v>57.77</v>
+        <v>205.83</v>
       </c>
       <c r="KJ2">
-        <v>57.74</v>
+        <v>205.49</v>
       </c>
       <c r="KK2">
-        <v>57.68</v>
+        <v>205.03</v>
       </c>
       <c r="KL2">
-        <v>57.67</v>
+        <v>204.91</v>
       </c>
       <c r="KM2">
-        <v>57.6</v>
+        <v>204.84</v>
       </c>
       <c r="KN2">
-        <v>57.57</v>
+        <v>204.73</v>
       </c>
       <c r="KO2">
-        <v>57.53</v>
+        <v>204.72</v>
       </c>
       <c r="KP2">
-        <v>57.45</v>
+        <v>204.7</v>
       </c>
       <c r="KQ2">
-        <v>57.42</v>
+        <v>204.57</v>
       </c>
       <c r="KR2">
-        <v>57.35</v>
+        <v>204.2</v>
       </c>
       <c r="KS2">
-        <v>57.31</v>
+        <v>204.13</v>
       </c>
       <c r="KT2">
-        <v>57.25</v>
+        <v>203.94</v>
       </c>
       <c r="KU2">
-        <v>57.21</v>
+        <v>203.83</v>
       </c>
       <c r="KV2">
-        <v>57.14</v>
+        <v>203.79</v>
       </c>
       <c r="KW2">
+        <v>203.73</v>
+      </c>
+      <c r="KX2">
+        <v>203.64</v>
+      </c>
+      <c r="KY2">
+        <v>203.53</v>
+      </c>
+      <c r="KZ2">
+        <v>203.16</v>
+      </c>
+      <c r="LA2">
+        <v>202.99</v>
+      </c>
+      <c r="LB2">
+        <v>202.91</v>
+      </c>
+      <c r="LC2">
+        <v>202.89</v>
+      </c>
+      <c r="LD2">
+        <v>202.45</v>
+      </c>
+      <c r="LE2">
+        <v>202.25</v>
+      </c>
+      <c r="LF2">
+        <v>202.05</v>
+      </c>
+      <c r="LG2">
+        <v>201.65</v>
+      </c>
+      <c r="LH2">
+        <v>201.5</v>
+      </c>
+      <c r="LI2">
+        <v>201.21</v>
+      </c>
+      <c r="LJ2">
+        <v>201.06</v>
+      </c>
+      <c r="LK2">
+        <v>201.01</v>
+      </c>
+      <c r="LL2">
+        <v>200.99</v>
+      </c>
+      <c r="LM2">
+        <v>200.98</v>
+      </c>
+      <c r="LN2">
+        <v>200.88</v>
+      </c>
+      <c r="LO2">
+        <v>200.67</v>
+      </c>
+      <c r="LP2">
+        <v>200.09</v>
+      </c>
+      <c r="LQ2">
+        <v>199.93</v>
+      </c>
+      <c r="LR2">
+        <v>199.51</v>
+      </c>
+      <c r="LS2">
+        <v>199.47</v>
+      </c>
+      <c r="LT2">
+        <v>199.1</v>
+      </c>
+      <c r="LU2">
+        <v>199.03</v>
+      </c>
+      <c r="LV2">
+        <v>198.79</v>
+      </c>
+      <c r="LW2">
+        <v>198.64</v>
+      </c>
+      <c r="LX2">
+        <v>198.42</v>
+      </c>
+      <c r="LY2">
+        <v>198.36</v>
+      </c>
+      <c r="LZ2">
+        <v>198.21</v>
+      </c>
+      <c r="MA2">
+        <v>198.17</v>
+      </c>
+      <c r="MB2">
+        <v>197.66</v>
+      </c>
+      <c r="MC2">
+        <v>197.6</v>
+      </c>
+      <c r="MD2">
+        <v>197.48</v>
+      </c>
+      <c r="ME2">
+        <v>197.11</v>
+      </c>
+      <c r="MF2">
+        <v>196.98</v>
+      </c>
+      <c r="MG2">
+        <v>196.7</v>
+      </c>
+      <c r="MH2">
+        <v>196.49</v>
+      </c>
+      <c r="MI2">
+        <v>196.36</v>
+      </c>
+      <c r="MJ2">
+        <v>195.82</v>
+      </c>
+      <c r="MK2">
+        <v>195.55</v>
+      </c>
+      <c r="ML2">
+        <v>194.52</v>
+      </c>
+      <c r="MM2">
+        <v>194.41</v>
+      </c>
+      <c r="MN2">
+        <v>194.26</v>
+      </c>
+      <c r="MO2">
+        <v>194.01</v>
+      </c>
+      <c r="MP2">
+        <v>193.83</v>
+      </c>
+      <c r="MQ2">
+        <v>193.64</v>
+      </c>
+      <c r="MR2">
+        <v>193.48</v>
+      </c>
+      <c r="MS2">
+        <v>193.37</v>
+      </c>
+      <c r="MT2">
+        <v>193.13</v>
+      </c>
+      <c r="MU2">
+        <v>192.87</v>
+      </c>
+      <c r="MV2">
+        <v>192.74</v>
+      </c>
+      <c r="MW2">
+        <v>192.34</v>
+      </c>
+      <c r="MX2">
+        <v>191.84</v>
+      </c>
+      <c r="MY2">
+        <v>191.6</v>
+      </c>
+      <c r="MZ2">
+        <v>191.1</v>
+      </c>
+      <c r="NA2">
+        <v>190.85</v>
+      </c>
+      <c r="NB2">
+        <v>190.4</v>
+      </c>
+      <c r="NC2">
+        <v>190.35</v>
+      </c>
+      <c r="ND2">
+        <v>190.22</v>
+      </c>
+      <c r="NE2">
+        <v>190.13</v>
+      </c>
+      <c r="NF2">
+        <v>190.02</v>
+      </c>
+      <c r="NG2">
+        <v>189.8</v>
+      </c>
+      <c r="NH2">
+        <v>189.33</v>
+      </c>
+      <c r="NI2">
+        <v>188.68</v>
+      </c>
+      <c r="NJ2">
+        <v>188.38</v>
+      </c>
+      <c r="NK2">
+        <v>188.16</v>
+      </c>
+      <c r="NL2">
+        <v>188.03</v>
+      </c>
+      <c r="NM2">
+        <v>187.27</v>
+      </c>
+      <c r="NN2">
+        <v>187.18</v>
+      </c>
+      <c r="NO2">
+        <v>187.14</v>
+      </c>
+      <c r="NP2">
+        <v>186.57</v>
+      </c>
+      <c r="NQ2">
+        <v>185.68</v>
+      </c>
+      <c r="NR2">
+        <v>185.31</v>
+      </c>
+      <c r="NS2">
+        <v>184.9</v>
+      </c>
+      <c r="NT2">
+        <v>184.69</v>
+      </c>
+      <c r="NU2">
+        <v>184.56</v>
+      </c>
+      <c r="NV2">
+        <v>184.2</v>
+      </c>
+      <c r="NW2">
+        <v>183.41</v>
+      </c>
+      <c r="NX2">
+        <v>183.12</v>
+      </c>
+      <c r="NY2">
+        <v>183</v>
+      </c>
+      <c r="NZ2">
+        <v>182.16</v>
+      </c>
+      <c r="OA2">
+        <v>181.37</v>
+      </c>
+      <c r="OB2">
+        <v>180.93</v>
+      </c>
+      <c r="OC2">
+        <v>180.92</v>
+      </c>
+      <c r="OD2">
+        <v>180.4</v>
+      </c>
+      <c r="OE2">
+        <v>180.05</v>
+      </c>
+      <c r="OF2">
+        <v>179.92</v>
+      </c>
+      <c r="OG2">
+        <v>179.14</v>
+      </c>
+      <c r="OH2">
+        <v>178.74</v>
+      </c>
+      <c r="OI2">
+        <v>177.81</v>
+      </c>
+      <c r="OJ2">
+        <v>177.46</v>
+      </c>
+      <c r="OK2">
+        <v>177.05</v>
+      </c>
+      <c r="OL2">
+        <v>176.9</v>
+      </c>
+      <c r="OM2">
+        <v>175.04</v>
+      </c>
+      <c r="ON2">
+        <v>174.99</v>
+      </c>
+      <c r="OO2">
+        <v>174.34</v>
+      </c>
+      <c r="OP2">
+        <v>174.23</v>
+      </c>
+      <c r="OQ2">
+        <v>173.09</v>
+      </c>
+      <c r="OR2">
+        <v>172.88</v>
+      </c>
+      <c r="OS2">
+        <v>172.18</v>
+      </c>
+      <c r="OT2">
+        <v>172.08</v>
+      </c>
+      <c r="OU2">
+        <v>171.11</v>
+      </c>
+      <c r="OV2">
+        <v>171.02</v>
+      </c>
+      <c r="OW2">
+        <v>170.99</v>
+      </c>
+      <c r="OX2">
+        <v>170.73</v>
+      </c>
+      <c r="OY2">
+        <v>170.42</v>
+      </c>
+      <c r="OZ2">
+        <v>170</v>
+      </c>
+      <c r="PA2">
+        <v>169.99</v>
+      </c>
+      <c r="PB2">
+        <v>169.71</v>
+      </c>
+      <c r="PC2">
+        <v>169.62</v>
+      </c>
+      <c r="PD2">
+        <v>169.1</v>
+      </c>
+      <c r="PE2">
+        <v>169.04</v>
+      </c>
+      <c r="PF2">
+        <v>168.31</v>
+      </c>
+      <c r="PG2">
+        <v>168.27</v>
+      </c>
+      <c r="PH2">
+        <v>168.08</v>
+      </c>
+      <c r="PI2">
+        <v>168.02</v>
+      </c>
+      <c r="PJ2">
+        <v>167.28</v>
+      </c>
+      <c r="PK2">
+        <v>167.19</v>
+      </c>
+      <c r="PL2">
+        <v>166.37</v>
+      </c>
+      <c r="PM2">
+        <v>166.05</v>
+      </c>
+      <c r="PN2">
+        <v>166.01</v>
+      </c>
+      <c r="PO2">
+        <v>165.93</v>
+      </c>
+      <c r="PP2">
+        <v>165.48</v>
+      </c>
+      <c r="PQ2">
+        <v>165.2</v>
+      </c>
+      <c r="PR2">
+        <v>165.13</v>
+      </c>
+      <c r="PS2">
+        <v>164.39</v>
+      </c>
+      <c r="PT2">
+        <v>164.02</v>
+      </c>
+      <c r="PU2">
+        <v>163.96</v>
+      </c>
+      <c r="PV2">
+        <v>163.72999999999999</v>
+      </c>
+      <c r="PW2">
+        <v>163.38</v>
+      </c>
+      <c r="PX2">
+        <v>162.97999999999999</v>
+      </c>
+      <c r="PY2">
+        <v>162.16</v>
+      </c>
+      <c r="PZ2">
+        <v>161.32</v>
+      </c>
+      <c r="QA2">
+        <v>161.03</v>
+      </c>
+      <c r="QB2">
+        <v>160.65</v>
+      </c>
+      <c r="QC2">
+        <v>160.22</v>
+      </c>
+      <c r="QD2">
+        <v>159.47999999999999</v>
+      </c>
+      <c r="QE2">
+        <v>159.26</v>
+      </c>
+      <c r="QF2">
+        <v>159.06</v>
+      </c>
+      <c r="QG2">
+        <v>158.22999999999999</v>
+      </c>
+      <c r="QH2">
+        <v>157.61000000000001</v>
+      </c>
+      <c r="QI2">
+        <v>157.51</v>
+      </c>
+      <c r="QJ2">
+        <v>157.08000000000001</v>
+      </c>
+      <c r="QK2">
+        <v>155.62</v>
+      </c>
+      <c r="QL2">
+        <v>155.4</v>
+      </c>
+      <c r="QM2">
+        <v>152.08000000000001</v>
+      </c>
+      <c r="QN2">
+        <v>151.97</v>
+      </c>
+      <c r="QO2">
+        <v>151.93</v>
+      </c>
+      <c r="QP2">
+        <v>151.12</v>
+      </c>
+      <c r="QQ2">
+        <v>150.13</v>
+      </c>
+      <c r="QR2">
+        <v>148.72999999999999</v>
+      </c>
+      <c r="QS2">
+        <v>148.53</v>
+      </c>
+      <c r="QT2">
+        <v>146.01</v>
+      </c>
+      <c r="QU2">
+        <v>144.41</v>
+      </c>
+      <c r="QV2">
+        <v>144.4</v>
+      </c>
+      <c r="QW2">
+        <v>143.34</v>
+      </c>
+      <c r="QX2">
+        <v>142.99</v>
+      </c>
+      <c r="QY2">
+        <v>141.65</v>
+      </c>
+      <c r="QZ2">
+        <v>139.78</v>
+      </c>
+      <c r="RA2">
+        <v>136.62</v>
+      </c>
+      <c r="RB2">
+        <v>135.18</v>
+      </c>
+      <c r="RC2">
+        <v>133.31</v>
+      </c>
+      <c r="RD2">
+        <v>132.58000000000001</v>
+      </c>
+      <c r="RE2">
+        <v>131.63</v>
+      </c>
+      <c r="RF2">
+        <v>130.66999999999999</v>
+      </c>
+      <c r="RG2">
+        <v>124.96</v>
+      </c>
+      <c r="RH2">
+        <v>124.57</v>
+      </c>
+      <c r="RI2">
+        <v>123.79</v>
+      </c>
+      <c r="RJ2">
+        <v>121.67</v>
+      </c>
+      <c r="RK2">
+        <v>117.79</v>
+      </c>
+      <c r="RL2">
+        <v>115.96</v>
+      </c>
+      <c r="RM2">
+        <v>114.8</v>
+      </c>
+      <c r="RN2">
+        <v>110.35</v>
+      </c>
+      <c r="RO2">
+        <v>105.48</v>
+      </c>
+      <c r="RP2">
+        <v>105.46</v>
+      </c>
+      <c r="RQ2">
+        <v>86.37</v>
+      </c>
+      <c r="RR2">
+        <v>78.099999999999994</v>
+      </c>
+      <c r="RS2">
+        <v>77.69</v>
+      </c>
+      <c r="RT2">
+        <v>77.349999999999994</v>
+      </c>
+      <c r="RU2">
+        <v>59.01</v>
+      </c>
+      <c r="RV2">
         <v>57.12</v>
       </c>
-      <c r="KX2">
-        <v>57.02</v>
-      </c>
-      <c r="KY2">
-        <v>56.9</v>
-      </c>
-      <c r="KZ2">
-        <v>56.88</v>
-      </c>
-      <c r="LA2">
-        <v>56.82</v>
-      </c>
-      <c r="LB2">
-        <v>56.78</v>
-      </c>
-      <c r="LC2">
-        <v>56.71</v>
-      </c>
-      <c r="LD2">
-        <v>56.67</v>
-      </c>
-      <c r="LE2">
-        <v>56.6</v>
-      </c>
-      <c r="LF2">
-        <v>56.55</v>
-      </c>
-      <c r="LG2">
-        <v>56.5</v>
-      </c>
-      <c r="LH2">
-        <v>56.43</v>
-      </c>
-      <c r="LI2">
-        <v>56.38</v>
-      </c>
-      <c r="LJ2">
-        <v>56.32</v>
-      </c>
-      <c r="LK2">
-        <v>56.24</v>
-      </c>
-      <c r="LL2">
-        <v>56.18</v>
-      </c>
-      <c r="LM2">
-        <v>56.13</v>
-      </c>
-      <c r="LN2">
-        <v>56.06</v>
-      </c>
-      <c r="LO2">
-        <v>56.02</v>
-      </c>
-      <c r="LP2">
-        <v>55.96</v>
-      </c>
-      <c r="LQ2">
-        <v>55.87</v>
-      </c>
-      <c r="LR2">
-        <v>55.82</v>
-      </c>
-      <c r="LS2">
-        <v>55.77</v>
-      </c>
-      <c r="LT2">
-        <v>55.71</v>
-      </c>
-      <c r="LU2">
-        <v>55.65</v>
-      </c>
-      <c r="LV2">
-        <v>55.59</v>
-      </c>
-      <c r="LW2">
-        <v>55.51</v>
-      </c>
-      <c r="LX2">
-        <v>55.47</v>
-      </c>
-      <c r="LY2">
-        <v>55.39</v>
-      </c>
-      <c r="LZ2">
-        <v>55.31</v>
-      </c>
-      <c r="MA2">
-        <v>55.28</v>
-      </c>
-      <c r="MB2">
-        <v>55.19</v>
-      </c>
-      <c r="MC2">
-        <v>55.14</v>
-      </c>
-      <c r="MD2">
-        <v>55.05</v>
-      </c>
-      <c r="ME2">
-        <v>55.01</v>
-      </c>
-      <c r="MF2">
-        <v>54.92</v>
-      </c>
-      <c r="MG2">
-        <v>54.89</v>
-      </c>
-      <c r="MH2">
-        <v>54.78</v>
-      </c>
-      <c r="MI2">
-        <v>54.74</v>
-      </c>
-      <c r="MJ2">
-        <v>54.64</v>
-      </c>
-      <c r="MK2">
-        <v>54.61</v>
-      </c>
-      <c r="ML2">
-        <v>54.49</v>
-      </c>
-      <c r="MM2">
-        <v>54.47</v>
-      </c>
-      <c r="MN2">
-        <v>54.35</v>
-      </c>
-      <c r="MO2">
-        <v>54.33</v>
-      </c>
-      <c r="MP2">
-        <v>54.2</v>
-      </c>
-      <c r="MQ2">
-        <v>54.18</v>
-      </c>
-      <c r="MR2">
-        <v>54.05</v>
-      </c>
-      <c r="MS2">
-        <v>54.04</v>
-      </c>
-      <c r="MT2">
-        <v>53.91</v>
-      </c>
-      <c r="MU2">
-        <v>53.87</v>
-      </c>
-      <c r="MV2">
-        <v>53.75</v>
-      </c>
-      <c r="MW2">
-        <v>53.72</v>
-      </c>
-      <c r="MX2">
-        <v>53.58</v>
-      </c>
-      <c r="MY2">
-        <v>53.56</v>
-      </c>
-      <c r="MZ2">
-        <v>53.43</v>
-      </c>
-      <c r="NA2">
-        <v>53.4</v>
-      </c>
-      <c r="NB2">
-        <v>53.26</v>
-      </c>
-      <c r="NC2">
-        <v>53.25</v>
-      </c>
-      <c r="ND2">
-        <v>53.11</v>
-      </c>
-      <c r="NE2">
-        <v>53.08</v>
-      </c>
-      <c r="NF2">
-        <v>52.95</v>
-      </c>
-      <c r="NG2">
-        <v>52.9</v>
-      </c>
-      <c r="NH2">
-        <v>52.77</v>
-      </c>
-      <c r="NI2">
-        <v>52.75</v>
-      </c>
-      <c r="NJ2">
-        <v>52.6</v>
-      </c>
-      <c r="NK2">
-        <v>52.58</v>
-      </c>
-      <c r="NL2">
-        <v>52.44</v>
-      </c>
-      <c r="NM2">
-        <v>52.41</v>
-      </c>
-      <c r="NN2">
-        <v>52.26</v>
-      </c>
-      <c r="NO2">
-        <v>52.23</v>
-      </c>
-      <c r="NP2">
-        <v>52.08</v>
-      </c>
-      <c r="NQ2">
-        <v>52.06</v>
-      </c>
-      <c r="NR2">
-        <v>51.91</v>
-      </c>
-      <c r="NS2">
-        <v>51.88</v>
-      </c>
-      <c r="NT2">
-        <v>51.73</v>
-      </c>
-      <c r="NU2">
-        <v>51.7</v>
-      </c>
-      <c r="NV2">
-        <v>51.55</v>
-      </c>
-      <c r="NW2">
-        <v>51.53</v>
-      </c>
-      <c r="NX2">
-        <v>51.37</v>
-      </c>
-      <c r="NY2">
-        <v>51.33</v>
-      </c>
-      <c r="NZ2">
-        <v>51.19</v>
-      </c>
-      <c r="OA2">
-        <v>51.16</v>
-      </c>
-      <c r="OB2">
-        <v>51</v>
-      </c>
-      <c r="OC2">
-        <v>50.97</v>
-      </c>
-      <c r="OD2">
-        <v>50.81</v>
-      </c>
-      <c r="OE2">
-        <v>50.79</v>
-      </c>
-      <c r="OF2">
-        <v>50.63</v>
-      </c>
-      <c r="OG2">
-        <v>50.6</v>
-      </c>
-      <c r="OH2">
-        <v>50.43</v>
-      </c>
-      <c r="OI2">
-        <v>50.42</v>
-      </c>
-      <c r="OJ2">
-        <v>50.25</v>
-      </c>
-      <c r="OK2">
-        <v>50.22</v>
-      </c>
-      <c r="OL2">
-        <v>50.05</v>
-      </c>
-      <c r="OM2">
-        <v>50.03</v>
-      </c>
-      <c r="ON2">
-        <v>49.85</v>
-      </c>
-      <c r="OO2">
-        <v>49.84</v>
-      </c>
-      <c r="OP2">
-        <v>49.66</v>
-      </c>
-      <c r="OQ2">
-        <v>49.64</v>
-      </c>
-      <c r="OR2">
-        <v>49.46</v>
-      </c>
-      <c r="OS2">
-        <v>49.44</v>
-      </c>
-      <c r="OT2">
-        <v>49.26</v>
-      </c>
-      <c r="OU2">
-        <v>49.24</v>
-      </c>
-      <c r="OV2">
-        <v>49.06</v>
-      </c>
-      <c r="OW2">
-        <v>49.05</v>
-      </c>
-      <c r="OX2">
-        <v>48.86</v>
-      </c>
-      <c r="OY2">
-        <v>48.84</v>
-      </c>
-      <c r="OZ2">
-        <v>48.66</v>
-      </c>
-      <c r="PA2">
-        <v>48.63</v>
-      </c>
-      <c r="PB2">
-        <v>48.46</v>
-      </c>
-      <c r="PC2">
-        <v>48.43</v>
-      </c>
-      <c r="PD2">
-        <v>48.25</v>
-      </c>
-      <c r="PE2">
-        <v>48.22</v>
-      </c>
-      <c r="PF2">
-        <v>48.03</v>
-      </c>
-      <c r="PG2">
-        <v>48.02</v>
-      </c>
-      <c r="PH2">
-        <v>47.83</v>
-      </c>
-      <c r="PI2">
-        <v>47.8</v>
-      </c>
-      <c r="PJ2">
-        <v>47.61</v>
-      </c>
-      <c r="PK2">
-        <v>47.6</v>
-      </c>
-      <c r="PL2">
-        <v>47.41</v>
-      </c>
-      <c r="PM2">
-        <v>47.38</v>
-      </c>
-      <c r="PN2">
-        <v>47.19</v>
-      </c>
-      <c r="PO2">
-        <v>47.17</v>
-      </c>
-      <c r="PP2">
-        <v>46.97</v>
-      </c>
-      <c r="PQ2">
-        <v>46.96</v>
-      </c>
-      <c r="PR2">
-        <v>46.76</v>
-      </c>
-      <c r="PS2">
-        <v>46.74</v>
-      </c>
-      <c r="PT2">
-        <v>46.54</v>
-      </c>
-      <c r="PU2">
-        <v>46.52</v>
-      </c>
-      <c r="PV2">
-        <v>46.32</v>
-      </c>
-      <c r="PW2">
-        <v>46.3</v>
-      </c>
-      <c r="PX2">
-        <v>46.11</v>
-      </c>
-      <c r="PY2">
-        <v>46.07</v>
-      </c>
-      <c r="PZ2">
-        <v>45.88</v>
-      </c>
-      <c r="QA2">
-        <v>45.85</v>
-      </c>
-      <c r="QB2">
-        <v>45.65</v>
-      </c>
-      <c r="QC2">
-        <v>45.64</v>
-      </c>
-      <c r="QD2">
-        <v>45.42</v>
-      </c>
-      <c r="QE2">
-        <v>45.41</v>
-      </c>
-      <c r="QF2">
-        <v>45.2</v>
-      </c>
-      <c r="QG2">
-        <v>45.18</v>
-      </c>
-      <c r="QH2">
-        <v>44.98</v>
-      </c>
-      <c r="QI2">
-        <v>44.94</v>
-      </c>
-      <c r="QJ2">
-        <v>44.74</v>
-      </c>
-      <c r="QK2">
-        <v>44.73</v>
-      </c>
-      <c r="QL2">
-        <v>44.51</v>
-      </c>
-      <c r="QM2">
-        <v>44.49</v>
-      </c>
-      <c r="QN2">
-        <v>44.28</v>
-      </c>
-      <c r="QO2">
-        <v>44.26</v>
-      </c>
-      <c r="QP2">
-        <v>44.05</v>
-      </c>
-      <c r="QQ2">
-        <v>44.02</v>
-      </c>
-      <c r="QR2">
-        <v>43.82</v>
-      </c>
-      <c r="QS2">
-        <v>43.78</v>
-      </c>
-      <c r="QT2">
-        <v>43.57</v>
-      </c>
-      <c r="QU2">
-        <v>43.56</v>
-      </c>
-      <c r="QV2">
-        <v>43.34</v>
-      </c>
-      <c r="QW2">
-        <v>43.31</v>
-      </c>
-      <c r="QX2">
-        <v>43.1</v>
-      </c>
-      <c r="QY2">
-        <v>43.08</v>
-      </c>
-      <c r="QZ2">
-        <v>42.86</v>
-      </c>
-      <c r="RA2">
-        <v>42.84</v>
-      </c>
-      <c r="RB2">
-        <v>42.63</v>
-      </c>
-      <c r="RC2">
-        <v>42.59</v>
-      </c>
-      <c r="RD2">
-        <v>42.37</v>
-      </c>
-      <c r="RE2">
-        <v>42.36</v>
-      </c>
-      <c r="RF2">
-        <v>42.14</v>
-      </c>
-      <c r="RG2">
-        <v>42.1</v>
-      </c>
-      <c r="RH2">
-        <v>41.89</v>
-      </c>
-      <c r="RI2">
-        <v>41.86</v>
-      </c>
-      <c r="RJ2">
-        <v>41.63</v>
-      </c>
-      <c r="RK2">
-        <v>41.62</v>
-      </c>
-      <c r="RL2">
-        <v>41.39</v>
-      </c>
-      <c r="RM2">
-        <v>41.37</v>
-      </c>
-      <c r="RN2">
-        <v>41.14</v>
-      </c>
-      <c r="RO2">
-        <v>41.12</v>
-      </c>
-      <c r="RP2">
-        <v>40.89</v>
-      </c>
-      <c r="RQ2">
-        <v>40.86</v>
-      </c>
-      <c r="RR2">
-        <v>40.64</v>
-      </c>
-      <c r="RS2">
-        <v>40.61</v>
-      </c>
-      <c r="RT2">
-        <v>40.369999999999997</v>
-      </c>
-      <c r="RU2">
-        <v>40.119999999999997</v>
-      </c>
-      <c r="RV2">
-        <v>40.11</v>
-      </c>
       <c r="RW2">
-        <v>39.86</v>
+        <v>55.74</v>
       </c>
       <c r="RX2">
-        <v>39.85</v>
+        <v>50.44</v>
       </c>
       <c r="RY2">
-        <v>39.619999999999997</v>
+        <v>32.19</v>
       </c>
       <c r="RZ2">
-        <v>39.590000000000003</v>
+        <v>22.78</v>
       </c>
       <c r="SA2">
-        <v>39.35</v>
+        <v>18.28</v>
       </c>
       <c r="SB2">
-        <v>39.340000000000003</v>
+        <v>16.2</v>
       </c>
       <c r="SC2">
-        <v>39.1</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="SD2">
         <v>39.06</v>

--- a/Output_data/kappa.xlsx
+++ b/Output_data/kappa.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:AAZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:EW2"/>
+      <selection sqref="A1:CV2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,436 +2545,436 @@
     </row>
     <row r="2" spans="1:728" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>428.29</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>385.45</v>
+        <v>0.99</v>
       </c>
       <c r="C2">
-        <v>330.03</v>
+        <v>0.98</v>
       </c>
       <c r="D2">
-        <v>281.31</v>
+        <v>0.97</v>
       </c>
       <c r="E2">
-        <v>264.41000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="F2">
-        <v>253.96</v>
+        <v>0.95</v>
       </c>
       <c r="G2">
-        <v>244.09</v>
+        <v>0.94</v>
       </c>
       <c r="H2">
-        <v>237.19</v>
+        <v>0.93</v>
       </c>
       <c r="I2">
-        <v>236.84</v>
+        <v>0.92</v>
       </c>
       <c r="J2">
-        <v>230.79</v>
+        <v>0.91</v>
       </c>
       <c r="K2">
-        <v>229.9</v>
+        <v>0.9</v>
       </c>
       <c r="L2">
-        <v>229.17</v>
+        <v>0.89</v>
       </c>
       <c r="M2">
-        <v>229.03</v>
+        <v>0.88</v>
       </c>
       <c r="N2">
-        <v>228.78</v>
+        <v>0.87</v>
       </c>
       <c r="O2">
-        <v>227.54</v>
+        <v>0.86</v>
       </c>
       <c r="P2">
-        <v>227.35</v>
+        <v>0.85</v>
       </c>
       <c r="Q2">
-        <v>224.49</v>
+        <v>0.84</v>
       </c>
       <c r="R2">
-        <v>222.4</v>
+        <v>0.83</v>
       </c>
       <c r="S2">
-        <v>221.02</v>
+        <v>0.82</v>
       </c>
       <c r="T2">
-        <v>220.56</v>
+        <v>0.81</v>
       </c>
       <c r="U2">
-        <v>219.71</v>
+        <v>0.8</v>
       </c>
       <c r="V2">
-        <v>219.27</v>
+        <v>0.79</v>
       </c>
       <c r="W2">
-        <v>216.03</v>
+        <v>0.78</v>
       </c>
       <c r="X2">
-        <v>215.84</v>
+        <v>0.77</v>
       </c>
       <c r="Y2">
-        <v>215.19</v>
+        <v>0.76</v>
       </c>
       <c r="Z2">
-        <v>214.19</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
-        <v>214.15</v>
+        <v>0.74</v>
       </c>
       <c r="AB2">
-        <v>211.92</v>
+        <v>0.73</v>
       </c>
       <c r="AC2">
-        <v>211.68</v>
+        <v>0.72</v>
       </c>
       <c r="AD2">
-        <v>210.85</v>
+        <v>0.71</v>
       </c>
       <c r="AE2">
-        <v>210.62</v>
+        <v>0.7</v>
       </c>
       <c r="AF2">
-        <v>209.21</v>
+        <v>0.69</v>
       </c>
       <c r="AG2">
-        <v>208.19</v>
+        <v>0.68</v>
       </c>
       <c r="AH2">
-        <v>207.68</v>
+        <v>0.67</v>
       </c>
       <c r="AI2">
-        <v>207.11</v>
+        <v>0.66</v>
       </c>
       <c r="AJ2">
-        <v>205.91</v>
+        <v>0.65</v>
       </c>
       <c r="AK2">
-        <v>203.53</v>
+        <v>0.64</v>
       </c>
       <c r="AL2">
-        <v>203.2</v>
+        <v>0.63</v>
       </c>
       <c r="AM2">
-        <v>201.54</v>
+        <v>0.62</v>
       </c>
       <c r="AN2">
-        <v>200.96</v>
+        <v>0.61</v>
       </c>
       <c r="AO2">
-        <v>200.74</v>
+        <v>0.6</v>
       </c>
       <c r="AP2">
-        <v>198.32</v>
+        <v>0.59</v>
       </c>
       <c r="AQ2">
-        <v>197.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AR2">
-        <v>195.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AS2">
-        <v>192.91</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AT2">
-        <v>192.72</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AU2">
-        <v>191.01</v>
+        <v>0.54</v>
       </c>
       <c r="AV2">
-        <v>190.36</v>
+        <v>0.53</v>
       </c>
       <c r="AW2">
-        <v>189.69</v>
+        <v>0.52</v>
       </c>
       <c r="AX2">
-        <v>188.18</v>
+        <v>0.51</v>
       </c>
       <c r="AY2">
-        <v>185.91</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2">
-        <v>185.51</v>
+        <v>0.49</v>
       </c>
       <c r="BA2">
-        <v>182.35</v>
+        <v>0.48</v>
       </c>
       <c r="BB2">
-        <v>181.79</v>
+        <v>0.47</v>
       </c>
       <c r="BC2">
-        <v>180.15</v>
+        <v>0.46</v>
       </c>
       <c r="BD2">
-        <v>179.91</v>
+        <v>0.45</v>
       </c>
       <c r="BE2">
-        <v>177.99</v>
+        <v>0.44</v>
       </c>
       <c r="BF2">
-        <v>176.54</v>
+        <v>0.43</v>
       </c>
       <c r="BG2">
-        <v>176.38</v>
+        <v>0.42</v>
       </c>
       <c r="BH2">
-        <v>175.43</v>
+        <v>0.41</v>
       </c>
       <c r="BI2">
-        <v>174.08</v>
+        <v>0.4</v>
       </c>
       <c r="BJ2">
-        <v>172.66</v>
+        <v>0.39</v>
       </c>
       <c r="BK2">
-        <v>171.85</v>
+        <v>0.38</v>
       </c>
       <c r="BL2">
-        <v>169.66</v>
+        <v>0.37</v>
       </c>
       <c r="BM2">
-        <v>167.18</v>
+        <v>0.36</v>
       </c>
       <c r="BN2">
-        <v>166.45</v>
+        <v>0.35</v>
       </c>
       <c r="BO2">
-        <v>166.27</v>
+        <v>0.34</v>
       </c>
       <c r="BP2">
-        <v>164.5</v>
+        <v>0.33</v>
       </c>
       <c r="BQ2">
-        <v>164.07</v>
+        <v>0.32</v>
       </c>
       <c r="BR2">
-        <v>161.29</v>
+        <v>0.31</v>
       </c>
       <c r="BS2">
-        <v>159.91999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="BT2">
-        <v>159.52000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BU2">
-        <v>159.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BV2">
-        <v>158.36000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="BW2">
-        <v>155.41999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="BX2">
-        <v>155.22</v>
+        <v>0.25</v>
       </c>
       <c r="BY2">
-        <v>152.36000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="BZ2">
-        <v>151.9</v>
+        <v>0.23</v>
       </c>
       <c r="CA2">
-        <v>151.69</v>
+        <v>0.22</v>
       </c>
       <c r="CB2">
-        <v>148.93</v>
+        <v>0.21</v>
       </c>
       <c r="CC2">
-        <v>148.36000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="CD2">
-        <v>145.12</v>
+        <v>0.19</v>
       </c>
       <c r="CE2">
-        <v>144.75</v>
+        <v>0.18</v>
       </c>
       <c r="CF2">
-        <v>144.71</v>
+        <v>0.17</v>
       </c>
       <c r="CG2">
-        <v>141.66</v>
+        <v>0.16</v>
       </c>
       <c r="CH2">
-        <v>141.21</v>
+        <v>0.15</v>
       </c>
       <c r="CI2">
-        <v>140.16999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CJ2">
-        <v>137.35</v>
+        <v>0.13</v>
       </c>
       <c r="CK2">
-        <v>137.13999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="CL2">
-        <v>133.91</v>
+        <v>0.11</v>
       </c>
       <c r="CM2">
-        <v>133.66</v>
+        <v>0.1</v>
       </c>
       <c r="CN2">
-        <v>132.91999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="CO2">
-        <v>129.58000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="CP2">
-        <v>129.11000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CQ2">
-        <v>126.83</v>
+        <v>0.06</v>
       </c>
       <c r="CR2">
-        <v>125.55</v>
+        <v>0.05</v>
       </c>
       <c r="CS2">
-        <v>125.01</v>
+        <v>0.04</v>
       </c>
       <c r="CT2">
-        <v>121.67</v>
+        <v>0.03</v>
       </c>
       <c r="CU2">
-        <v>120.12</v>
+        <v>0.02</v>
       </c>
       <c r="CV2">
-        <v>118.55</v>
+        <v>0.01</v>
       </c>
       <c r="CW2">
-        <v>116.6</v>
+        <v>20.5</v>
       </c>
       <c r="CX2">
-        <v>116.16</v>
+        <v>20.49</v>
       </c>
       <c r="CY2">
-        <v>113.28</v>
+        <v>19.91</v>
       </c>
       <c r="CZ2">
-        <v>111.17</v>
+        <v>19.899999999999999</v>
       </c>
       <c r="DA2">
-        <v>110.22</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="DB2">
-        <v>107.19</v>
+        <v>19.3</v>
       </c>
       <c r="DC2">
-        <v>107.12</v>
+        <v>18.7</v>
       </c>
       <c r="DD2">
-        <v>104.1</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="DE2">
-        <v>101.67</v>
+        <v>18.079999999999998</v>
       </c>
       <c r="DF2">
-        <v>101.03</v>
+        <v>18.07</v>
       </c>
       <c r="DG2">
-        <v>97.74</v>
+        <v>17.440000000000001</v>
       </c>
       <c r="DH2">
-        <v>97.13</v>
+        <v>16.8</v>
       </c>
       <c r="DI2">
-        <v>94.77</v>
+        <v>16.79</v>
       </c>
       <c r="DJ2">
-        <v>92.1</v>
+        <v>16.14</v>
       </c>
       <c r="DK2">
-        <v>91.42</v>
+        <v>15.47</v>
       </c>
       <c r="DL2">
-        <v>87.88</v>
+        <v>14.8</v>
       </c>
       <c r="DM2">
-        <v>87.23</v>
+        <v>14.79</v>
       </c>
       <c r="DN2">
-        <v>84.81</v>
+        <v>14.11</v>
       </c>
       <c r="DO2">
-        <v>81.86</v>
+        <v>14.1</v>
       </c>
       <c r="DP2">
-        <v>81.22</v>
+        <v>13.4</v>
       </c>
       <c r="DQ2">
-        <v>77.69</v>
+        <v>12.69</v>
       </c>
       <c r="DR2">
-        <v>76.72</v>
+        <v>11.97</v>
       </c>
       <c r="DS2">
-        <v>74.069999999999993</v>
+        <v>11.96</v>
       </c>
       <c r="DT2">
-        <v>71.38</v>
+        <v>11.23</v>
       </c>
       <c r="DU2">
-        <v>70.62</v>
+        <v>10.49</v>
       </c>
       <c r="DV2">
-        <v>66.8</v>
+        <v>10.48</v>
       </c>
       <c r="DW2">
-        <v>65.849999999999994</v>
+        <v>9.73</v>
       </c>
       <c r="DX2">
-        <v>63.13</v>
+        <v>8.9600000000000009</v>
       </c>
       <c r="DY2">
-        <v>60.56</v>
+        <v>8.18</v>
       </c>
       <c r="DZ2">
-        <v>59.48</v>
+        <v>7.39</v>
       </c>
       <c r="EA2">
-        <v>55.86</v>
+        <v>6.59</v>
       </c>
       <c r="EB2">
-        <v>54.68</v>
+        <v>6.58</v>
       </c>
       <c r="EC2">
-        <v>51.95</v>
+        <v>5.78</v>
       </c>
       <c r="ED2">
-        <v>49.13</v>
+        <v>5.77</v>
       </c>
       <c r="EE2">
-        <v>48.03</v>
+        <v>4.95</v>
       </c>
       <c r="EF2">
-        <v>44.31</v>
+        <v>4.12</v>
       </c>
       <c r="EG2">
-        <v>43.3</v>
+        <v>4.1100000000000003</v>
       </c>
       <c r="EH2">
-        <v>40.03</v>
+        <v>3.27</v>
       </c>
       <c r="EI2">
-        <v>37.869999999999997</v>
+        <v>3.26</v>
       </c>
       <c r="EJ2">
-        <v>35.840000000000003</v>
+        <v>2.41</v>
       </c>
       <c r="EK2">
-        <v>32.74</v>
+        <v>2.4</v>
       </c>
       <c r="EL2">
-        <v>30.93</v>
+        <v>1.54</v>
       </c>
       <c r="EM2">
-        <v>28.33</v>
+        <v>0.66</v>
       </c>
       <c r="EN2">
-        <v>25.23</v>
+        <v>0.65</v>
       </c>
       <c r="EO2">
         <v>23.91</v>
@@ -3004,97 +3004,97 @@
         <v>3.4</v>
       </c>
       <c r="EX2">
-        <v>228.02</v>
+        <v>155</v>
       </c>
       <c r="EY2">
-        <v>227.57</v>
+        <v>154</v>
       </c>
       <c r="EZ2">
-        <v>227.55</v>
+        <v>153</v>
       </c>
       <c r="FA2">
-        <v>227.49</v>
+        <v>152</v>
       </c>
       <c r="FB2">
-        <v>227.4</v>
+        <v>151</v>
       </c>
       <c r="FC2">
-        <v>227.35</v>
+        <v>150</v>
       </c>
       <c r="FD2">
-        <v>227.06</v>
+        <v>149</v>
       </c>
       <c r="FE2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="FF2">
-        <v>226.97</v>
+        <v>147</v>
       </c>
       <c r="FG2">
-        <v>226.74</v>
+        <v>144</v>
       </c>
       <c r="FH2">
-        <v>226.64</v>
+        <v>139</v>
       </c>
       <c r="FI2">
-        <v>226.44</v>
+        <v>138</v>
       </c>
       <c r="FJ2">
-        <v>226.41</v>
+        <v>135</v>
       </c>
       <c r="FK2">
-        <v>226.31</v>
+        <v>134</v>
       </c>
       <c r="FL2">
-        <v>226.28</v>
+        <v>133</v>
       </c>
       <c r="FM2">
-        <v>226.24</v>
+        <v>131</v>
       </c>
       <c r="FN2">
-        <v>225.89</v>
+        <v>130</v>
       </c>
       <c r="FO2">
-        <v>225.84</v>
+        <v>129</v>
       </c>
       <c r="FP2">
-        <v>225.83</v>
+        <v>128</v>
       </c>
       <c r="FQ2">
-        <v>225.66</v>
+        <v>98</v>
       </c>
       <c r="FR2">
-        <v>225.65</v>
+        <v>97</v>
       </c>
       <c r="FS2">
-        <v>225.51</v>
+        <v>96</v>
       </c>
       <c r="FT2">
-        <v>225.49</v>
+        <v>89</v>
       </c>
       <c r="FU2">
-        <v>225.43</v>
+        <v>66</v>
       </c>
       <c r="FV2">
-        <v>225.27</v>
+        <v>63</v>
       </c>
       <c r="FW2">
-        <v>224.94</v>
+        <v>47</v>
       </c>
       <c r="FX2">
-        <v>224.91</v>
+        <v>41</v>
       </c>
       <c r="FY2">
-        <v>224.66</v>
+        <v>29</v>
       </c>
       <c r="FZ2">
-        <v>224.65</v>
+        <v>28</v>
       </c>
       <c r="GA2">
-        <v>224.61</v>
+        <v>13</v>
       </c>
       <c r="GB2">
-        <v>224.56</v>
+        <v>2</v>
       </c>
       <c r="GC2">
         <v>224.22</v>

--- a/Output_data/kappa.xlsx
+++ b/Output_data/kappa.xlsx
@@ -352,7 +352,7 @@
   <dimension ref="A1:AAZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:CV2"/>
+      <selection sqref="A1:EW2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2545,436 +2545,436 @@
     </row>
     <row r="2" spans="1:728" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>428.29</v>
       </c>
       <c r="B2">
-        <v>0.99</v>
+        <v>385.45</v>
       </c>
       <c r="C2">
-        <v>0.98</v>
+        <v>330.03</v>
       </c>
       <c r="D2">
-        <v>0.97</v>
+        <v>281.31</v>
       </c>
       <c r="E2">
-        <v>0.96</v>
+        <v>264.41000000000003</v>
       </c>
       <c r="F2">
-        <v>0.95</v>
+        <v>253.96</v>
       </c>
       <c r="G2">
-        <v>0.94</v>
+        <v>244.09</v>
       </c>
       <c r="H2">
-        <v>0.93</v>
+        <v>237.19</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>236.84</v>
       </c>
       <c r="J2">
-        <v>0.91</v>
+        <v>230.79</v>
       </c>
       <c r="K2">
-        <v>0.9</v>
+        <v>229.9</v>
       </c>
       <c r="L2">
-        <v>0.89</v>
+        <v>229.17</v>
       </c>
       <c r="M2">
-        <v>0.88</v>
+        <v>229.03</v>
       </c>
       <c r="N2">
-        <v>0.87</v>
+        <v>228.78</v>
       </c>
       <c r="O2">
-        <v>0.86</v>
+        <v>227.54</v>
       </c>
       <c r="P2">
-        <v>0.85</v>
+        <v>227.35</v>
       </c>
       <c r="Q2">
-        <v>0.84</v>
+        <v>224.49</v>
       </c>
       <c r="R2">
-        <v>0.83</v>
+        <v>222.4</v>
       </c>
       <c r="S2">
-        <v>0.82</v>
+        <v>221.02</v>
       </c>
       <c r="T2">
-        <v>0.81</v>
+        <v>220.56</v>
       </c>
       <c r="U2">
-        <v>0.8</v>
+        <v>219.71</v>
       </c>
       <c r="V2">
-        <v>0.79</v>
+        <v>219.27</v>
       </c>
       <c r="W2">
-        <v>0.78</v>
+        <v>216.03</v>
       </c>
       <c r="X2">
-        <v>0.77</v>
+        <v>215.84</v>
       </c>
       <c r="Y2">
-        <v>0.76</v>
+        <v>215.19</v>
       </c>
       <c r="Z2">
-        <v>0.75</v>
+        <v>214.19</v>
       </c>
       <c r="AA2">
-        <v>0.74</v>
+        <v>214.15</v>
       </c>
       <c r="AB2">
-        <v>0.73</v>
+        <v>211.92</v>
       </c>
       <c r="AC2">
-        <v>0.72</v>
+        <v>211.68</v>
       </c>
       <c r="AD2">
-        <v>0.71</v>
+        <v>210.85</v>
       </c>
       <c r="AE2">
-        <v>0.7</v>
+        <v>210.62</v>
       </c>
       <c r="AF2">
-        <v>0.69</v>
+        <v>209.21</v>
       </c>
       <c r="AG2">
-        <v>0.68</v>
+        <v>208.19</v>
       </c>
       <c r="AH2">
-        <v>0.67</v>
+        <v>207.68</v>
       </c>
       <c r="AI2">
-        <v>0.66</v>
+        <v>207.11</v>
       </c>
       <c r="AJ2">
-        <v>0.65</v>
+        <v>205.91</v>
       </c>
       <c r="AK2">
-        <v>0.64</v>
+        <v>203.53</v>
       </c>
       <c r="AL2">
-        <v>0.63</v>
+        <v>203.2</v>
       </c>
       <c r="AM2">
-        <v>0.62</v>
+        <v>201.54</v>
       </c>
       <c r="AN2">
-        <v>0.61</v>
+        <v>200.96</v>
       </c>
       <c r="AO2">
-        <v>0.6</v>
+        <v>200.74</v>
       </c>
       <c r="AP2">
-        <v>0.59</v>
+        <v>198.32</v>
       </c>
       <c r="AQ2">
-        <v>0.57999999999999996</v>
+        <v>197.5</v>
       </c>
       <c r="AR2">
-        <v>0.56999999999999995</v>
+        <v>195.51</v>
       </c>
       <c r="AS2">
-        <v>0.56000000000000005</v>
+        <v>192.91</v>
       </c>
       <c r="AT2">
-        <v>0.55000000000000004</v>
+        <v>192.72</v>
       </c>
       <c r="AU2">
-        <v>0.54</v>
+        <v>191.01</v>
       </c>
       <c r="AV2">
-        <v>0.53</v>
+        <v>190.36</v>
       </c>
       <c r="AW2">
-        <v>0.52</v>
+        <v>189.69</v>
       </c>
       <c r="AX2">
-        <v>0.51</v>
+        <v>188.18</v>
       </c>
       <c r="AY2">
-        <v>0.5</v>
+        <v>185.91</v>
       </c>
       <c r="AZ2">
-        <v>0.49</v>
+        <v>185.51</v>
       </c>
       <c r="BA2">
-        <v>0.48</v>
+        <v>182.35</v>
       </c>
       <c r="BB2">
-        <v>0.47</v>
+        <v>181.79</v>
       </c>
       <c r="BC2">
-        <v>0.46</v>
+        <v>180.15</v>
       </c>
       <c r="BD2">
-        <v>0.45</v>
+        <v>179.91</v>
       </c>
       <c r="BE2">
-        <v>0.44</v>
+        <v>177.99</v>
       </c>
       <c r="BF2">
-        <v>0.43</v>
+        <v>176.54</v>
       </c>
       <c r="BG2">
-        <v>0.42</v>
+        <v>176.38</v>
       </c>
       <c r="BH2">
-        <v>0.41</v>
+        <v>175.43</v>
       </c>
       <c r="BI2">
-        <v>0.4</v>
+        <v>174.08</v>
       </c>
       <c r="BJ2">
-        <v>0.39</v>
+        <v>172.66</v>
       </c>
       <c r="BK2">
-        <v>0.38</v>
+        <v>171.85</v>
       </c>
       <c r="BL2">
-        <v>0.37</v>
+        <v>169.66</v>
       </c>
       <c r="BM2">
-        <v>0.36</v>
+        <v>167.18</v>
       </c>
       <c r="BN2">
-        <v>0.35</v>
+        <v>166.45</v>
       </c>
       <c r="BO2">
-        <v>0.34</v>
+        <v>166.27</v>
       </c>
       <c r="BP2">
-        <v>0.33</v>
+        <v>164.5</v>
       </c>
       <c r="BQ2">
-        <v>0.32</v>
+        <v>164.07</v>
       </c>
       <c r="BR2">
-        <v>0.31</v>
+        <v>161.29</v>
       </c>
       <c r="BS2">
-        <v>0.3</v>
+        <v>159.91999999999999</v>
       </c>
       <c r="BT2">
-        <v>0.28999999999999998</v>
+        <v>159.52000000000001</v>
       </c>
       <c r="BU2">
-        <v>0.28000000000000003</v>
+        <v>159.1</v>
       </c>
       <c r="BV2">
-        <v>0.27</v>
+        <v>158.36000000000001</v>
       </c>
       <c r="BW2">
-        <v>0.26</v>
+        <v>155.41999999999999</v>
       </c>
       <c r="BX2">
-        <v>0.25</v>
+        <v>155.22</v>
       </c>
       <c r="BY2">
-        <v>0.24</v>
+        <v>152.36000000000001</v>
       </c>
       <c r="BZ2">
-        <v>0.23</v>
+        <v>151.9</v>
       </c>
       <c r="CA2">
-        <v>0.22</v>
+        <v>151.69</v>
       </c>
       <c r="CB2">
-        <v>0.21</v>
+        <v>148.93</v>
       </c>
       <c r="CC2">
-        <v>0.2</v>
+        <v>148.36000000000001</v>
       </c>
       <c r="CD2">
-        <v>0.19</v>
+        <v>145.12</v>
       </c>
       <c r="CE2">
-        <v>0.18</v>
+        <v>144.75</v>
       </c>
       <c r="CF2">
-        <v>0.17</v>
+        <v>144.71</v>
       </c>
       <c r="CG2">
-        <v>0.16</v>
+        <v>141.66</v>
       </c>
       <c r="CH2">
-        <v>0.15</v>
+        <v>141.21</v>
       </c>
       <c r="CI2">
-        <v>0.14000000000000001</v>
+        <v>140.16999999999999</v>
       </c>
       <c r="CJ2">
-        <v>0.13</v>
+        <v>137.35</v>
       </c>
       <c r="CK2">
-        <v>0.12</v>
+        <v>137.13999999999999</v>
       </c>
       <c r="CL2">
-        <v>0.11</v>
+        <v>133.91</v>
       </c>
       <c r="CM2">
-        <v>0.1</v>
+        <v>133.66</v>
       </c>
       <c r="CN2">
-        <v>0.09</v>
+        <v>132.91999999999999</v>
       </c>
       <c r="CO2">
-        <v>0.08</v>
+        <v>129.58000000000001</v>
       </c>
       <c r="CP2">
-        <v>7.0000000000000007E-2</v>
+        <v>129.11000000000001</v>
       </c>
       <c r="CQ2">
-        <v>0.06</v>
+        <v>126.83</v>
       </c>
       <c r="CR2">
-        <v>0.05</v>
+        <v>125.55</v>
       </c>
       <c r="CS2">
-        <v>0.04</v>
+        <v>125.01</v>
       </c>
       <c r="CT2">
-        <v>0.03</v>
+        <v>121.67</v>
       </c>
       <c r="CU2">
-        <v>0.02</v>
+        <v>120.12</v>
       </c>
       <c r="CV2">
-        <v>0.01</v>
+        <v>118.55</v>
       </c>
       <c r="CW2">
-        <v>20.5</v>
+        <v>116.6</v>
       </c>
       <c r="CX2">
-        <v>20.49</v>
+        <v>116.16</v>
       </c>
       <c r="CY2">
-        <v>19.91</v>
+        <v>113.28</v>
       </c>
       <c r="CZ2">
-        <v>19.899999999999999</v>
+        <v>111.17</v>
       </c>
       <c r="DA2">
-        <v>19.309999999999999</v>
+        <v>110.22</v>
       </c>
       <c r="DB2">
-        <v>19.3</v>
+        <v>107.19</v>
       </c>
       <c r="DC2">
-        <v>18.7</v>
+        <v>107.12</v>
       </c>
       <c r="DD2">
-        <v>18.690000000000001</v>
+        <v>104.1</v>
       </c>
       <c r="DE2">
-        <v>18.079999999999998</v>
+        <v>101.67</v>
       </c>
       <c r="DF2">
-        <v>18.07</v>
+        <v>101.03</v>
       </c>
       <c r="DG2">
-        <v>17.440000000000001</v>
+        <v>97.74</v>
       </c>
       <c r="DH2">
-        <v>16.8</v>
+        <v>97.13</v>
       </c>
       <c r="DI2">
-        <v>16.79</v>
+        <v>94.77</v>
       </c>
       <c r="DJ2">
-        <v>16.14</v>
+        <v>92.1</v>
       </c>
       <c r="DK2">
-        <v>15.47</v>
+        <v>91.42</v>
       </c>
       <c r="DL2">
-        <v>14.8</v>
+        <v>87.88</v>
       </c>
       <c r="DM2">
-        <v>14.79</v>
+        <v>87.23</v>
       </c>
       <c r="DN2">
-        <v>14.11</v>
+        <v>84.81</v>
       </c>
       <c r="DO2">
-        <v>14.1</v>
+        <v>81.86</v>
       </c>
       <c r="DP2">
-        <v>13.4</v>
+        <v>81.22</v>
       </c>
       <c r="DQ2">
-        <v>12.69</v>
+        <v>77.69</v>
       </c>
       <c r="DR2">
-        <v>11.97</v>
+        <v>76.72</v>
       </c>
       <c r="DS2">
-        <v>11.96</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="DT2">
-        <v>11.23</v>
+        <v>71.38</v>
       </c>
       <c r="DU2">
-        <v>10.49</v>
+        <v>70.62</v>
       </c>
       <c r="DV2">
-        <v>10.48</v>
+        <v>66.8</v>
       </c>
       <c r="DW2">
-        <v>9.73</v>
+        <v>65.849999999999994</v>
       </c>
       <c r="DX2">
-        <v>8.9600000000000009</v>
+        <v>63.13</v>
       </c>
       <c r="DY2">
-        <v>8.18</v>
+        <v>60.56</v>
       </c>
       <c r="DZ2">
-        <v>7.39</v>
+        <v>59.48</v>
       </c>
       <c r="EA2">
-        <v>6.59</v>
+        <v>55.86</v>
       </c>
       <c r="EB2">
-        <v>6.58</v>
+        <v>54.68</v>
       </c>
       <c r="EC2">
-        <v>5.78</v>
+        <v>51.95</v>
       </c>
       <c r="ED2">
-        <v>5.77</v>
+        <v>49.13</v>
       </c>
       <c r="EE2">
-        <v>4.95</v>
+        <v>48.03</v>
       </c>
       <c r="EF2">
-        <v>4.12</v>
+        <v>44.31</v>
       </c>
       <c r="EG2">
-        <v>4.1100000000000003</v>
+        <v>43.3</v>
       </c>
       <c r="EH2">
-        <v>3.27</v>
+        <v>40.03</v>
       </c>
       <c r="EI2">
-        <v>3.26</v>
+        <v>37.869999999999997</v>
       </c>
       <c r="EJ2">
-        <v>2.41</v>
+        <v>35.840000000000003</v>
       </c>
       <c r="EK2">
-        <v>2.4</v>
+        <v>32.74</v>
       </c>
       <c r="EL2">
-        <v>1.54</v>
+        <v>30.93</v>
       </c>
       <c r="EM2">
-        <v>0.66</v>
+        <v>28.33</v>
       </c>
       <c r="EN2">
-        <v>0.65</v>
+        <v>25.23</v>
       </c>
       <c r="EO2">
         <v>23.91</v>

--- a/Output_data/kappa.xlsx
+++ b/Output_data/kappa.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="5172" windowHeight="5232" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5175" windowHeight="5235" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -341,7 +341,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -352,12 +352,12 @@
   <dimension ref="A1:AAZ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:EW2"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:728" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:728" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -2543,606 +2543,606 @@
         <v>728</v>
       </c>
     </row>
-    <row r="2" spans="1:728" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:728" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>428.29</v>
+        <v>1</v>
       </c>
       <c r="B2">
-        <v>385.45</v>
+        <v>0.99</v>
       </c>
       <c r="C2">
-        <v>330.03</v>
+        <v>0.98</v>
       </c>
       <c r="D2">
-        <v>281.31</v>
+        <v>0.97</v>
       </c>
       <c r="E2">
-        <v>264.41000000000003</v>
+        <v>0.96</v>
       </c>
       <c r="F2">
-        <v>253.96</v>
+        <v>0.95</v>
       </c>
       <c r="G2">
-        <v>244.09</v>
+        <v>0.94</v>
       </c>
       <c r="H2">
-        <v>237.19</v>
+        <v>0.93</v>
       </c>
       <c r="I2">
-        <v>236.84</v>
+        <v>0.92</v>
       </c>
       <c r="J2">
-        <v>230.79</v>
+        <v>0.91</v>
       </c>
       <c r="K2">
-        <v>229.9</v>
+        <v>0.9</v>
       </c>
       <c r="L2">
-        <v>229.17</v>
+        <v>0.89</v>
       </c>
       <c r="M2">
-        <v>229.03</v>
+        <v>0.88</v>
       </c>
       <c r="N2">
-        <v>228.78</v>
+        <v>0.87</v>
       </c>
       <c r="O2">
-        <v>227.54</v>
+        <v>0.86</v>
       </c>
       <c r="P2">
-        <v>227.35</v>
+        <v>0.85</v>
       </c>
       <c r="Q2">
-        <v>224.49</v>
+        <v>0.84</v>
       </c>
       <c r="R2">
-        <v>222.4</v>
+        <v>0.83</v>
       </c>
       <c r="S2">
-        <v>221.02</v>
+        <v>0.82</v>
       </c>
       <c r="T2">
-        <v>220.56</v>
+        <v>0.81</v>
       </c>
       <c r="U2">
-        <v>219.71</v>
+        <v>0.8</v>
       </c>
       <c r="V2">
-        <v>219.27</v>
+        <v>0.79</v>
       </c>
       <c r="W2">
-        <v>216.03</v>
+        <v>0.78</v>
       </c>
       <c r="X2">
-        <v>215.84</v>
+        <v>0.77</v>
       </c>
       <c r="Y2">
-        <v>215.19</v>
+        <v>0.76</v>
       </c>
       <c r="Z2">
-        <v>214.19</v>
+        <v>0.75</v>
       </c>
       <c r="AA2">
-        <v>214.15</v>
+        <v>0.74</v>
       </c>
       <c r="AB2">
-        <v>211.92</v>
+        <v>0.73</v>
       </c>
       <c r="AC2">
-        <v>211.68</v>
+        <v>0.72</v>
       </c>
       <c r="AD2">
-        <v>210.85</v>
+        <v>0.71</v>
       </c>
       <c r="AE2">
-        <v>210.62</v>
+        <v>0.7</v>
       </c>
       <c r="AF2">
-        <v>209.21</v>
+        <v>0.69</v>
       </c>
       <c r="AG2">
-        <v>208.19</v>
+        <v>0.68</v>
       </c>
       <c r="AH2">
-        <v>207.68</v>
+        <v>0.67</v>
       </c>
       <c r="AI2">
-        <v>207.11</v>
+        <v>0.66</v>
       </c>
       <c r="AJ2">
-        <v>205.91</v>
+        <v>0.65</v>
       </c>
       <c r="AK2">
-        <v>203.53</v>
+        <v>0.64</v>
       </c>
       <c r="AL2">
-        <v>203.2</v>
+        <v>0.63</v>
       </c>
       <c r="AM2">
-        <v>201.54</v>
+        <v>0.62</v>
       </c>
       <c r="AN2">
-        <v>200.96</v>
+        <v>0.61</v>
       </c>
       <c r="AO2">
-        <v>200.74</v>
+        <v>0.6</v>
       </c>
       <c r="AP2">
-        <v>198.32</v>
+        <v>0.59</v>
       </c>
       <c r="AQ2">
-        <v>197.5</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="AR2">
-        <v>195.51</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="AS2">
-        <v>192.91</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="AT2">
-        <v>192.72</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="AU2">
-        <v>191.01</v>
+        <v>0.54</v>
       </c>
       <c r="AV2">
-        <v>190.36</v>
+        <v>0.53</v>
       </c>
       <c r="AW2">
-        <v>189.69</v>
+        <v>0.52</v>
       </c>
       <c r="AX2">
-        <v>188.18</v>
+        <v>0.51</v>
       </c>
       <c r="AY2">
-        <v>185.91</v>
+        <v>0.5</v>
       </c>
       <c r="AZ2">
-        <v>185.51</v>
+        <v>0.49</v>
       </c>
       <c r="BA2">
-        <v>182.35</v>
+        <v>0.48</v>
       </c>
       <c r="BB2">
-        <v>181.79</v>
+        <v>0.47</v>
       </c>
       <c r="BC2">
-        <v>180.15</v>
+        <v>0.46</v>
       </c>
       <c r="BD2">
-        <v>179.91</v>
+        <v>0.45</v>
       </c>
       <c r="BE2">
-        <v>177.99</v>
+        <v>0.44</v>
       </c>
       <c r="BF2">
-        <v>176.54</v>
+        <v>0.43</v>
       </c>
       <c r="BG2">
-        <v>176.38</v>
+        <v>0.42</v>
       </c>
       <c r="BH2">
-        <v>175.43</v>
+        <v>0.41</v>
       </c>
       <c r="BI2">
-        <v>174.08</v>
+        <v>0.4</v>
       </c>
       <c r="BJ2">
-        <v>172.66</v>
+        <v>0.39</v>
       </c>
       <c r="BK2">
-        <v>171.85</v>
+        <v>0.38</v>
       </c>
       <c r="BL2">
-        <v>169.66</v>
+        <v>0.37</v>
       </c>
       <c r="BM2">
-        <v>167.18</v>
+        <v>0.36</v>
       </c>
       <c r="BN2">
-        <v>166.45</v>
+        <v>0.35</v>
       </c>
       <c r="BO2">
-        <v>166.27</v>
+        <v>0.34</v>
       </c>
       <c r="BP2">
-        <v>164.5</v>
+        <v>0.33</v>
       </c>
       <c r="BQ2">
-        <v>164.07</v>
+        <v>0.32</v>
       </c>
       <c r="BR2">
-        <v>161.29</v>
+        <v>0.31</v>
       </c>
       <c r="BS2">
-        <v>159.91999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="BT2">
-        <v>159.52000000000001</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="BU2">
-        <v>159.1</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="BV2">
-        <v>158.36000000000001</v>
+        <v>0.27</v>
       </c>
       <c r="BW2">
-        <v>155.41999999999999</v>
+        <v>0.26</v>
       </c>
       <c r="BX2">
-        <v>155.22</v>
+        <v>0.25</v>
       </c>
       <c r="BY2">
-        <v>152.36000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="BZ2">
-        <v>151.9</v>
+        <v>0.23</v>
       </c>
       <c r="CA2">
-        <v>151.69</v>
+        <v>0.22</v>
       </c>
       <c r="CB2">
-        <v>148.93</v>
+        <v>0.21</v>
       </c>
       <c r="CC2">
-        <v>148.36000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="CD2">
-        <v>145.12</v>
+        <v>0.19</v>
       </c>
       <c r="CE2">
-        <v>144.75</v>
+        <v>0.18</v>
       </c>
       <c r="CF2">
-        <v>144.71</v>
+        <v>0.17</v>
       </c>
       <c r="CG2">
-        <v>141.66</v>
+        <v>0.16</v>
       </c>
       <c r="CH2">
-        <v>141.21</v>
+        <v>0.15</v>
       </c>
       <c r="CI2">
-        <v>140.16999999999999</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="CJ2">
-        <v>137.35</v>
+        <v>0.13</v>
       </c>
       <c r="CK2">
-        <v>137.13999999999999</v>
+        <v>0.12</v>
       </c>
       <c r="CL2">
-        <v>133.91</v>
+        <v>0.11</v>
       </c>
       <c r="CM2">
-        <v>133.66</v>
+        <v>0.1</v>
       </c>
       <c r="CN2">
-        <v>132.91999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="CO2">
-        <v>129.58000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="CP2">
-        <v>129.11000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="CQ2">
-        <v>126.83</v>
+        <v>0.06</v>
       </c>
       <c r="CR2">
-        <v>125.55</v>
+        <v>0.05</v>
       </c>
       <c r="CS2">
-        <v>125.01</v>
+        <v>0.04</v>
       </c>
       <c r="CT2">
-        <v>121.67</v>
+        <v>0.03</v>
       </c>
       <c r="CU2">
-        <v>120.12</v>
+        <v>0.02</v>
       </c>
       <c r="CV2">
-        <v>118.55</v>
+        <v>0.01</v>
       </c>
       <c r="CW2">
-        <v>116.6</v>
+        <v>1</v>
       </c>
       <c r="CX2">
-        <v>116.16</v>
+        <v>0.99</v>
       </c>
       <c r="CY2">
-        <v>113.28</v>
+        <v>0.98</v>
       </c>
       <c r="CZ2">
-        <v>111.17</v>
+        <v>0.97</v>
       </c>
       <c r="DA2">
-        <v>110.22</v>
+        <v>0.96</v>
       </c>
       <c r="DB2">
-        <v>107.19</v>
+        <v>0.95</v>
       </c>
       <c r="DC2">
-        <v>107.12</v>
+        <v>0.94</v>
       </c>
       <c r="DD2">
-        <v>104.1</v>
+        <v>0.93</v>
       </c>
       <c r="DE2">
-        <v>101.67</v>
+        <v>0.92</v>
       </c>
       <c r="DF2">
-        <v>101.03</v>
+        <v>0.91</v>
       </c>
       <c r="DG2">
-        <v>97.74</v>
+        <v>0.9</v>
       </c>
       <c r="DH2">
-        <v>97.13</v>
+        <v>0.89</v>
       </c>
       <c r="DI2">
-        <v>94.77</v>
+        <v>0.88</v>
       </c>
       <c r="DJ2">
-        <v>92.1</v>
+        <v>0.87</v>
       </c>
       <c r="DK2">
-        <v>91.42</v>
+        <v>0.86</v>
       </c>
       <c r="DL2">
-        <v>87.88</v>
+        <v>0.85</v>
       </c>
       <c r="DM2">
-        <v>87.23</v>
+        <v>0.84</v>
       </c>
       <c r="DN2">
-        <v>84.81</v>
+        <v>0.83</v>
       </c>
       <c r="DO2">
-        <v>81.86</v>
+        <v>0.82</v>
       </c>
       <c r="DP2">
-        <v>81.22</v>
+        <v>0.81</v>
       </c>
       <c r="DQ2">
-        <v>77.69</v>
+        <v>0.8</v>
       </c>
       <c r="DR2">
-        <v>76.72</v>
+        <v>0.79</v>
       </c>
       <c r="DS2">
-        <v>74.069999999999993</v>
+        <v>0.78</v>
       </c>
       <c r="DT2">
-        <v>71.38</v>
+        <v>0.77</v>
       </c>
       <c r="DU2">
-        <v>70.62</v>
+        <v>0.76</v>
       </c>
       <c r="DV2">
-        <v>66.8</v>
+        <v>0.75</v>
       </c>
       <c r="DW2">
-        <v>65.849999999999994</v>
+        <v>0.74</v>
       </c>
       <c r="DX2">
-        <v>63.13</v>
+        <v>0.73</v>
       </c>
       <c r="DY2">
-        <v>60.56</v>
+        <v>0.72</v>
       </c>
       <c r="DZ2">
-        <v>59.48</v>
+        <v>0.71</v>
       </c>
       <c r="EA2">
-        <v>55.86</v>
+        <v>0.7</v>
       </c>
       <c r="EB2">
-        <v>54.68</v>
+        <v>0.69</v>
       </c>
       <c r="EC2">
-        <v>51.95</v>
+        <v>0.68</v>
       </c>
       <c r="ED2">
-        <v>49.13</v>
+        <v>0.67</v>
       </c>
       <c r="EE2">
-        <v>48.03</v>
+        <v>0.66</v>
       </c>
       <c r="EF2">
-        <v>44.31</v>
+        <v>0.65</v>
       </c>
       <c r="EG2">
-        <v>43.3</v>
+        <v>0.64</v>
       </c>
       <c r="EH2">
-        <v>40.03</v>
+        <v>0.63</v>
       </c>
       <c r="EI2">
-        <v>37.869999999999997</v>
+        <v>0.62</v>
       </c>
       <c r="EJ2">
-        <v>35.840000000000003</v>
+        <v>0.61</v>
       </c>
       <c r="EK2">
-        <v>32.74</v>
+        <v>0.6</v>
       </c>
       <c r="EL2">
-        <v>30.93</v>
+        <v>0.59</v>
       </c>
       <c r="EM2">
-        <v>28.33</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="EN2">
-        <v>25.23</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="EO2">
-        <v>23.91</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="EP2">
-        <v>20.05</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="EQ2">
-        <v>19.14</v>
+        <v>0.54</v>
       </c>
       <c r="ER2">
-        <v>15.23</v>
+        <v>0.53</v>
       </c>
       <c r="ES2">
-        <v>13.79</v>
+        <v>0.52</v>
       </c>
       <c r="ET2">
-        <v>10.64</v>
+        <v>0.51</v>
       </c>
       <c r="EU2">
-        <v>8.4499999999999993</v>
+        <v>0.5</v>
       </c>
       <c r="EV2">
-        <v>5.39</v>
+        <v>0.49</v>
       </c>
       <c r="EW2">
-        <v>3.4</v>
+        <v>0.48</v>
       </c>
       <c r="EX2">
-        <v>155</v>
+        <v>0.47</v>
       </c>
       <c r="EY2">
-        <v>154</v>
+        <v>0.46</v>
       </c>
       <c r="EZ2">
-        <v>153</v>
+        <v>0.45</v>
       </c>
       <c r="FA2">
-        <v>152</v>
+        <v>0.44</v>
       </c>
       <c r="FB2">
-        <v>151</v>
+        <v>0.43</v>
       </c>
       <c r="FC2">
-        <v>150</v>
+        <v>0.42</v>
       </c>
       <c r="FD2">
-        <v>149</v>
+        <v>0.41</v>
       </c>
       <c r="FE2">
-        <v>148</v>
+        <v>0.4</v>
       </c>
       <c r="FF2">
-        <v>147</v>
+        <v>0.39</v>
       </c>
       <c r="FG2">
-        <v>144</v>
+        <v>0.38</v>
       </c>
       <c r="FH2">
-        <v>139</v>
+        <v>0.37</v>
       </c>
       <c r="FI2">
-        <v>138</v>
+        <v>0.36</v>
       </c>
       <c r="FJ2">
-        <v>135</v>
+        <v>0.35</v>
       </c>
       <c r="FK2">
-        <v>134</v>
+        <v>0.34</v>
       </c>
       <c r="FL2">
-        <v>133</v>
+        <v>0.33</v>
       </c>
       <c r="FM2">
-        <v>131</v>
+        <v>0.32</v>
       </c>
       <c r="FN2">
-        <v>130</v>
+        <v>0.31</v>
       </c>
       <c r="FO2">
-        <v>129</v>
+        <v>0.3</v>
       </c>
       <c r="FP2">
-        <v>128</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="FQ2">
-        <v>98</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="FR2">
-        <v>97</v>
+        <v>0.27</v>
       </c>
       <c r="FS2">
-        <v>96</v>
+        <v>0.26</v>
       </c>
       <c r="FT2">
-        <v>89</v>
+        <v>0.25</v>
       </c>
       <c r="FU2">
-        <v>66</v>
+        <v>0.24</v>
       </c>
       <c r="FV2">
-        <v>63</v>
+        <v>0.23</v>
       </c>
       <c r="FW2">
-        <v>47</v>
+        <v>0.22</v>
       </c>
       <c r="FX2">
-        <v>41</v>
+        <v>0.21</v>
       </c>
       <c r="FY2">
-        <v>29</v>
+        <v>0.2</v>
       </c>
       <c r="FZ2">
-        <v>28</v>
+        <v>0.19</v>
       </c>
       <c r="GA2">
-        <v>13</v>
+        <v>0.18</v>
       </c>
       <c r="GB2">
-        <v>2</v>
+        <v>0.17</v>
       </c>
       <c r="GC2">
-        <v>224.22</v>
+        <v>0.16</v>
       </c>
       <c r="GD2">
-        <v>224.03</v>
+        <v>0.15</v>
       </c>
       <c r="GE2">
-        <v>224.01</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="GF2">
-        <v>223.3</v>
+        <v>0.13</v>
       </c>
       <c r="GG2">
-        <v>223.23</v>
+        <v>0.12</v>
       </c>
       <c r="GH2">
-        <v>223.14</v>
+        <v>0.11</v>
       </c>
       <c r="GI2">
-        <v>223.04</v>
+        <v>0.1</v>
       </c>
       <c r="GJ2">
-        <v>223.01</v>
+        <v>0.09</v>
       </c>
       <c r="GK2">
-        <v>222.88</v>
+        <v>0.08</v>
       </c>
       <c r="GL2">
-        <v>222.77</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="GM2">
-        <v>222.45</v>
+        <v>0.06</v>
       </c>
       <c r="GN2">
-        <v>222.37</v>
+        <v>0.05</v>
       </c>
       <c r="GO2">
-        <v>222.14</v>
+        <v>0.04</v>
       </c>
       <c r="GP2">
-        <v>222.02</v>
+        <v>0.03</v>
       </c>
       <c r="GQ2">
-        <v>221.99</v>
+        <v>0.02</v>
       </c>
       <c r="GR2">
-        <v>221.88</v>
+        <v>0.01</v>
       </c>
       <c r="GS2">
         <v>221.79</v>
